--- a/publication/analyses/outputs/rigid_transformations/df_icp_idpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/df_icp_idpt.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.364529055004552</v>
+        <v>0.3645290523579833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9922315603623018</v>
+        <v>0.9922315573551798</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3989908999846534</v>
+        <v>-0.3989909045728837</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6917035520589252</v>
+        <v>-0.6917035583350639</v>
       </c>
       <c r="I2" t="n">
-        <v>-48.02078399856945</v>
+        <v>-48.02076657392433</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5330771858395429</v>
+        <v>0.5330771857589729</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5219253825236437</v>
+        <v>0.5219253826812318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7460411456381333</v>
+        <v>0.7460411456908103</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6541758772638824</v>
+        <v>0.6541758726426976</v>
       </c>
       <c r="N2" t="n">
         <v>87</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -579,31 +579,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3845270662917782</v>
+        <v>0.384527066065689</v>
       </c>
       <c r="F3" t="n">
-        <v>1.027036172152885</v>
+        <v>1.027036172211028</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4691201826479983</v>
+        <v>-0.4691201854642486</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6318614970771819</v>
+        <v>-0.6318614983934481</v>
       </c>
       <c r="I3" t="n">
-        <v>-47.87204207758308</v>
+        <v>-47.87202465210029</v>
       </c>
       <c r="J3" t="n">
-        <v>0.582953826553419</v>
+        <v>0.582953826830233</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5264620264745329</v>
+        <v>0.5264620275119652</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7854918390492326</v>
+        <v>0.7854918399499911</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6616690031257441</v>
+        <v>0.6616690021467497</v>
       </c>
       <c r="N3" t="n">
         <v>87</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -629,31 +629,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.359242731017625</v>
+        <v>0.3592427300277322</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9756437532149431</v>
+        <v>0.9756437512419645</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5274935585165963</v>
+        <v>-0.5274935511259287</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6141091875491611</v>
+        <v>-0.614109179993136</v>
       </c>
       <c r="I4" t="n">
-        <v>-47.53008432218165</v>
+        <v>-47.53006689505972</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5560243934489205</v>
+        <v>0.5560243931174252</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5193163568704811</v>
+        <v>0.5193163560790554</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7608236356892897</v>
+        <v>0.760823634906822</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6107602873172956</v>
+        <v>0.6107602851402728</v>
       </c>
       <c r="N4" t="n">
         <v>87</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -679,31 +679,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3895421956800112</v>
+        <v>0.3895421958381486</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9187490842944841</v>
+        <v>0.9187490842679114</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3330259643621503</v>
+        <v>-0.3330259640630402</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.6902268685890363</v>
+        <v>-0.6902268689834727</v>
       </c>
       <c r="I5" t="n">
-        <v>-42.92773919688162</v>
+        <v>-42.92773922823741</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5375474860034342</v>
+        <v>0.5375474859180434</v>
       </c>
       <c r="K5" t="n">
-        <v>0.489225202077001</v>
+        <v>0.4892252021207417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7268415219674057</v>
+        <v>0.7268415219336948</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5619619932308894</v>
+        <v>0.5619619932310814</v>
       </c>
       <c r="N5" t="n">
         <v>87</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -729,31 +729,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3446446581987956</v>
+        <v>0.3446446580365429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8550490665861014</v>
+        <v>0.855049066537804</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3136952958640222</v>
+        <v>-0.3136952961552879</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6829373370763392</v>
+        <v>-0.6829373366146569</v>
       </c>
       <c r="I6" t="n">
-        <v>-43.06846424272234</v>
+        <v>-43.06846427407497</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5464996788484692</v>
+        <v>0.5464996784128192</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4975761759053817</v>
+        <v>0.4975761762958325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.73908318192887</v>
+        <v>0.7390831818696028</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4299592497663642</v>
+        <v>0.4299592497721418</v>
       </c>
       <c r="N6" t="n">
         <v>86</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -779,31 +779,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3396046678058177</v>
+        <v>0.3396046678599151</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8692186313491334</v>
+        <v>0.8692186313620269</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2789081150460788</v>
+        <v>-0.2789081152672566</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6769631857400782</v>
+        <v>-0.6769631857300737</v>
       </c>
       <c r="I7" t="n">
-        <v>-43.44247318842763</v>
+        <v>-43.44247321977873</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5391859556366583</v>
+        <v>0.539185955529852</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4880799397893149</v>
+        <v>0.4880799399308711</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7272850351688515</v>
+        <v>0.7272850351846669</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4760225905395008</v>
+        <v>0.4760225905388565</v>
       </c>
       <c r="N7" t="n">
         <v>86</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -829,31 +829,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3308000123353051</v>
+        <v>0.3308000126602602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.860621362721957</v>
+        <v>0.8606213629284795</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2301859642556678</v>
+        <v>-0.2301859646349271</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.612305686589707</v>
+        <v>-0.612305686322145</v>
       </c>
       <c r="I8" t="n">
-        <v>-37.81065987109856</v>
+        <v>-37.81065987365263</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5440857702589124</v>
+        <v>0.5440857697460553</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5032750815542999</v>
+        <v>0.5032750824615333</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7411579677178957</v>
+        <v>0.7411579679574527</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4374402780513049</v>
+        <v>0.4374402780518259</v>
       </c>
       <c r="N8" t="n">
         <v>87</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -879,31 +879,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3435551112640041</v>
+        <v>0.3435551126037013</v>
       </c>
       <c r="F9" t="n">
-        <v>0.864810847045378</v>
+        <v>0.8648108478593094</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2060248947612422</v>
+        <v>-0.2060248948824324</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6723041411135569</v>
+        <v>-0.6723041412080306</v>
       </c>
       <c r="I9" t="n">
-        <v>-37.64856410551052</v>
+        <v>-37.64856410806597</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5327475325172929</v>
+        <v>0.5327475331384464</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4988840667787516</v>
+        <v>0.4988840675263933</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7298665943095149</v>
+        <v>0.7298665952739438</v>
       </c>
       <c r="M9" t="n">
-        <v>0.463888516432975</v>
+        <v>0.4638885164329766</v>
       </c>
       <c r="N9" t="n">
         <v>87</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -929,31 +929,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3577778590440845</v>
+        <v>0.3577778601170908</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8548596989757383</v>
+        <v>0.8548596996122887</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2626605320925819</v>
+        <v>-0.2626605323093827</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6356140873679692</v>
+        <v>-0.635614087631609</v>
       </c>
       <c r="I10" t="n">
-        <v>-37.59588092212447</v>
+        <v>-37.59588092467968</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5257350236277633</v>
+        <v>0.5257350237539999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4971996594250024</v>
+        <v>0.4971996603853891</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7236054286703654</v>
+        <v>0.723605429421978</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4551706147497795</v>
+        <v>0.4551706147504012</v>
       </c>
       <c r="N10" t="n">
         <v>87</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -979,31 +979,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3144301799273853</v>
+        <v>0.3144301794385211</v>
       </c>
       <c r="F11" t="n">
-        <v>0.797880369520116</v>
+        <v>0.7978803691396676</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1794723524100164</v>
+        <v>-0.1794723523767061</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5788370289758973</v>
+        <v>-0.5788370293569756</v>
       </c>
       <c r="I11" t="n">
-        <v>-33.04556133419059</v>
+        <v>-33.04556133098433</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5584121148591086</v>
+        <v>0.5584121141481466</v>
       </c>
       <c r="K11" t="n">
-        <v>0.502792953416857</v>
+        <v>0.5027929536025129</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7514152274389095</v>
+        <v>0.7514152270347876</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2683062430106162</v>
+        <v>0.2683062430111125</v>
       </c>
       <c r="N11" t="n">
         <v>87</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1029,31 +1029,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3076451720849884</v>
+        <v>0.3076451722407686</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7883851854936141</v>
+        <v>0.7883851852221573</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1959385365256594</v>
+        <v>-0.1959385358475174</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5798639418499647</v>
+        <v>-0.5798639415963862</v>
       </c>
       <c r="I12" t="n">
-        <v>-32.97022288967328</v>
+        <v>-32.97022288646507</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5383648387373553</v>
+        <v>0.5383648390220968</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5005018190066101</v>
+        <v>0.5005018182723375</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7350773907675463</v>
+        <v>0.7350773904761347</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2849779470207902</v>
+        <v>0.2849779470214137</v>
       </c>
       <c r="N12" t="n">
         <v>87</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3181889087428703</v>
+        <v>0.3181889088114787</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7907616729524748</v>
+        <v>0.790761672909103</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1899768877042334</v>
+        <v>-0.1899768872748382</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5764455890693512</v>
+        <v>-0.5764455892305591</v>
       </c>
       <c r="I13" t="n">
-        <v>-32.93627377622703</v>
+        <v>-32.93627377302002</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5375336344404976</v>
+        <v>0.537533634845125</v>
       </c>
       <c r="K13" t="n">
-        <v>0.498774140899905</v>
+        <v>0.498774140395188</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7332926099349759</v>
+        <v>0.7332926098882838</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2959492720473726</v>
+        <v>0.2959492720470949</v>
       </c>
       <c r="N13" t="n">
         <v>87</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.287632964081153</v>
+        <v>0.2876329644487145</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7724754549383858</v>
+        <v>0.7724754550435009</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05434043952067213</v>
+        <v>-0.05434043929102472</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5457663673091133</v>
+        <v>-0.5457663678508311</v>
       </c>
       <c r="I14" t="n">
-        <v>-28.48700948490319</v>
+        <v>-28.48700949138434</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5411030658578984</v>
+        <v>0.5411030658089457</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4991671871514005</v>
+        <v>0.4991671873667871</v>
       </c>
       <c r="L14" t="n">
-        <v>0.736179603500028</v>
+        <v>0.7361796036100902</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2340041022564156</v>
+        <v>0.2340041022571752</v>
       </c>
       <c r="N14" t="n">
         <v>87</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1179,31 +1179,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.280001822102837</v>
+        <v>0.2800018218412381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7642411310920841</v>
+        <v>0.7642411307990803</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04541011140059936</v>
+        <v>-0.04541011143669493</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.56543939071355</v>
+        <v>-0.5654393908345696</v>
       </c>
       <c r="I15" t="n">
-        <v>-28.39016043731641</v>
+        <v>-28.39016044379415</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5347301027273699</v>
+        <v>0.5347301026589225</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4992402986560658</v>
+        <v>0.4992402982806358</v>
       </c>
       <c r="L15" t="n">
-        <v>0.731558034994505</v>
+        <v>0.7315580346882672</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2211048346099067</v>
+        <v>0.2211048346104511</v>
       </c>
       <c r="N15" t="n">
         <v>87</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1229,31 +1229,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2827527697599491</v>
+        <v>0.282752769812853</v>
       </c>
       <c r="F16" t="n">
-        <v>0.778410279435264</v>
+        <v>0.7784102795476225</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.05186802373572164</v>
+        <v>-0.05186802387282796</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5461198967281575</v>
+        <v>-0.5461198973823116</v>
       </c>
       <c r="I16" t="n">
-        <v>-28.35233063111935</v>
+        <v>-28.35233063759941</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5413536919392736</v>
+        <v>0.5413536917955863</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4990331299878591</v>
+        <v>0.4990331303182693</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7362729688109984</v>
+        <v>0.7362729689292971</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2526354656985528</v>
+        <v>0.2526354656999559</v>
       </c>
       <c r="N16" t="n">
         <v>87</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1279,31 +1279,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3009660984242033</v>
+        <v>0.3009660984975264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7817265036350235</v>
+        <v>0.7817265036456815</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02858337537844591</v>
+        <v>-0.02858337581960768</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.3726299523398779</v>
+        <v>-0.3726299522269301</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.91398103708617</v>
+        <v>-22.91398113846195</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5366267688861017</v>
+        <v>0.536626768975122</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4973145825785679</v>
+        <v>0.4973145825018754</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7316352117896137</v>
+        <v>0.7316352118027765</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2753293361685054</v>
+        <v>0.2753293361638143</v>
       </c>
       <c r="N17" t="n">
         <v>87</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1329,31 +1329,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2905846187301916</v>
+        <v>0.290584618628926</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7667923862563528</v>
+        <v>0.7667923863751021</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01634430788266172</v>
+        <v>-0.0163443079925969</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.4045028268575379</v>
+        <v>-0.4045028270380158</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.81757629658348</v>
+        <v>-22.81757639796242</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5357990409518223</v>
+        <v>0.5357990410603412</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4896117068687056</v>
+        <v>0.4896117069371985</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7258100548957557</v>
+        <v>0.7258100550220686</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2473263589529328</v>
+        <v>0.2473263589505029</v>
       </c>
       <c r="N18" t="n">
         <v>87</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -1379,31 +1379,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2937567514408736</v>
+        <v>0.2937567511294387</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7731756086526543</v>
+        <v>0.7731756085484358</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.04430604686928064</v>
+        <v>-0.0443060468401768</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3975636859631777</v>
+        <v>-0.3975636856674782</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.8717043990698</v>
+        <v>-22.87170450045203</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5359234969012882</v>
+        <v>0.5359234968596214</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4920848796952881</v>
+        <v>0.4920848795773197</v>
       </c>
       <c r="L19" t="n">
-        <v>0.727572349224207</v>
+        <v>0.7275723491137288</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2616084831570955</v>
+        <v>0.2616084831562796</v>
       </c>
       <c r="N19" t="n">
         <v>87</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -1429,31 +1429,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2633677823021804</v>
+        <v>0.263367782362777</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7222828471474424</v>
+        <v>0.7222828472901073</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0566286122340216</v>
+        <v>0.05662861188255874</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2140278946303624</v>
+        <v>-0.2140278942727036</v>
       </c>
       <c r="I20" t="n">
-        <v>-18.35113269385533</v>
+        <v>-18.35113268878495</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4887907899023166</v>
+        <v>0.4887907900512687</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4520907395083872</v>
+        <v>0.452090739575813</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6658096372406838</v>
+        <v>0.6658096373958168</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2799822105791931</v>
+        <v>0.279982210578365</v>
       </c>
       <c r="N20" t="n">
         <v>82</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1479,31 +1479,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2683866849981772</v>
+        <v>0.2683866849627811</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7444665910650999</v>
+        <v>0.7444665910481139</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02718648587563166</v>
+        <v>0.0271864858010531</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.2587873570359989</v>
+        <v>-0.258787357059191</v>
       </c>
       <c r="I21" t="n">
-        <v>-18.18446853884531</v>
+        <v>-18.18446853377413</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4969368230027598</v>
+        <v>0.496936822958597</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4728705517148697</v>
+        <v>0.4728705517345327</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6859684866925022</v>
+        <v>0.685968486674064</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2892710501879621</v>
+        <v>0.289271050188062</v>
       </c>
       <c r="N21" t="n">
         <v>84</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1529,31 +1529,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2538810309257628</v>
+        <v>0.2538810310223329</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7478614841961601</v>
+        <v>0.7478614842516561</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03105973582000843</v>
+        <v>0.03105973585053334</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2606093011373218</v>
+        <v>-0.2606093014759381</v>
       </c>
       <c r="I22" t="n">
-        <v>-18.0895197001795</v>
+        <v>-18.08951969510827</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5072912132257458</v>
+        <v>0.5072912132782336</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4738633523892699</v>
+        <v>0.4738633524203062</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6941835864910999</v>
+        <v>0.6941835865506426</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2782192441051491</v>
+        <v>0.2782192441057881</v>
       </c>
       <c r="N22" t="n">
         <v>84</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -1579,31 +1579,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2672979938189779</v>
+        <v>0.2672979938452514</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7496487584996179</v>
+        <v>0.7496487585375824</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004712900785193597</v>
+        <v>-0.004712900748131688</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2398405607787595</v>
+        <v>-0.2398405606521123</v>
       </c>
       <c r="I23" t="n">
-        <v>-13.51300825596028</v>
+        <v>-13.51300900717893</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5071436785714565</v>
+        <v>0.5071436785347407</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4341613569285103</v>
+        <v>0.4341613569806931</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6676007748385213</v>
+        <v>0.6676007748445663</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3410021503671801</v>
+        <v>0.3410021504387708</v>
       </c>
       <c r="N23" t="n">
         <v>64</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1629,31 +1629,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2636116136518347</v>
+        <v>0.2636116138514468</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7571277149775171</v>
+        <v>0.7571277150431569</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.009685282764507974</v>
+        <v>-0.009685282497002845</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.2269686001703803</v>
+        <v>-0.2269686003268134</v>
       </c>
       <c r="I24" t="n">
-        <v>-13.55610390084147</v>
+        <v>-13.5561046520495</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5067833278542806</v>
+        <v>0.506783327861462</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4431779539940126</v>
+        <v>0.4431779539927763</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6732280745017831</v>
+        <v>0.6732280745063751</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3464193073281148</v>
+        <v>0.3464193074626187</v>
       </c>
       <c r="N24" t="n">
         <v>66</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1679,31 +1679,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2634827041066256</v>
+        <v>0.2634827042166989</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7423630449337073</v>
+        <v>0.742363044856731</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04406112855133415</v>
+        <v>0.04406112843275878</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.2544176421425846</v>
+        <v>-0.2544176420827853</v>
       </c>
       <c r="I25" t="n">
-        <v>-13.4943847781601</v>
+        <v>-13.49438552932638</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4953401198448463</v>
+        <v>0.4953401198656973</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4543861161178903</v>
+        <v>0.4543861158963304</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6721819521889945</v>
+        <v>0.6721819520545882</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3150782658874572</v>
+        <v>0.3150782659928157</v>
       </c>
       <c r="N25" t="n">
         <v>68</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -1729,31 +1729,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2014837726284424</v>
+        <v>0.2014837726234803</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6538306487153097</v>
+        <v>0.6538306487874023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07067009095010235</v>
+        <v>0.07067009090542342</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1388721032142257</v>
+        <v>-0.1388721032187732</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.375662837038259</v>
+        <v>-8.375663387295022</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4811016687699518</v>
+        <v>0.4811016688088652</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3886598197976888</v>
+        <v>0.3886598199276165</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6184781897677591</v>
+        <v>0.6184781898796774</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2120831110227583</v>
+        <v>0.2120831109186238</v>
       </c>
       <c r="N26" t="n">
         <v>51</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -1779,31 +1779,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2024237809699228</v>
+        <v>0.2024237809525827</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6563686925384771</v>
+        <v>0.6563686925048443</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06361532292032734</v>
+        <v>0.06361532304140383</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1441605711850116</v>
+        <v>-0.144160571205191</v>
       </c>
       <c r="I27" t="n">
-        <v>-8.481481773370236</v>
+        <v>-8.481482323639021</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4764877869303386</v>
+        <v>0.4764877869352065</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3928134312954676</v>
+        <v>0.3928134312889125</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6175297587160401</v>
+        <v>0.6175297587156264</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2224339399569471</v>
+        <v>0.2224339398588692</v>
       </c>
       <c r="N27" t="n">
         <v>52</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1829,31 +1829,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2058324789561658</v>
+        <v>0.2058324789308117</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6534967409938728</v>
+        <v>0.6534967409605736</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07495102092883599</v>
+        <v>0.07495102083964866</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.1333621250653323</v>
+        <v>-0.1333621250791452</v>
       </c>
       <c r="I28" t="n">
-        <v>-8.357455758342859</v>
+        <v>-8.357456308588656</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4810158448425784</v>
+        <v>0.4810158448048831</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3828196617613965</v>
+        <v>0.3828196618144911</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6147577867914562</v>
+        <v>0.6147577867950245</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2216548083594932</v>
+        <v>0.2216548082514416</v>
       </c>
       <c r="N28" t="n">
         <v>50</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1879,31 +1879,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2375123142454488</v>
+        <v>0.2375123142010394</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6339775049300962</v>
+        <v>0.6339775048944938</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04269381335740263</v>
+        <v>-0.04269381335569733</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.03618395108276218</v>
+        <v>-0.03618395102267868</v>
       </c>
       <c r="I29" t="n">
-        <v>-4.144255814416397</v>
+        <v>-4.144255819468224</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4457970018872854</v>
+        <v>0.4457970018572347</v>
       </c>
       <c r="K29" t="n">
-        <v>0.32876389975512</v>
+        <v>0.3287638997286448</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5539139542148104</v>
+        <v>0.5539139541749113</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3083939170663466</v>
+        <v>0.3083939170647018</v>
       </c>
       <c r="N29" t="n">
         <v>29</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -1929,31 +1929,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2395278129492783</v>
+        <v>0.2395278129630291</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6431484468332528</v>
+        <v>0.6431484468344101</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02610055573336467</v>
+        <v>-0.02610055571364001</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.06688062169047271</v>
+        <v>-0.06688062173139997</v>
       </c>
       <c r="I30" t="n">
-        <v>-4.176998272273796</v>
+        <v>-4.176998277325524</v>
       </c>
       <c r="J30" t="n">
-        <v>0.443974891285017</v>
+        <v>0.443974891277378</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3264290918218146</v>
+        <v>0.3264290918358214</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5510622978204528</v>
+        <v>0.5510622978225952</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3316176542116982</v>
+        <v>0.3316176542104111</v>
       </c>
       <c r="N30" t="n">
         <v>29</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1979,31 +1979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2452538304835976</v>
+        <v>0.2452538304427346</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6453197455874377</v>
+        <v>0.6453197456138566</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.03693819435767409</v>
+        <v>-0.03693819434005263</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.07030743690495456</v>
+        <v>-0.0703074369166643</v>
       </c>
       <c r="I31" t="n">
-        <v>-4.166378992991457</v>
+        <v>-4.166378998043569</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4453796216104532</v>
+        <v>0.4453796216091944</v>
       </c>
       <c r="K31" t="n">
-        <v>0.326873990525367</v>
+        <v>0.3268739905808303</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5524577929831819</v>
+        <v>0.5524577930149832</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3335085621346988</v>
+        <v>0.3335085621332107</v>
       </c>
       <c r="N31" t="n">
         <v>29</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -2029,31 +2029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8569264275239606</v>
+        <v>0.85692642754119</v>
       </c>
       <c r="F32" t="n">
-        <v>1.38638228486057</v>
+        <v>1.38638228480465</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02304995053344783</v>
+        <v>0.02304995063241222</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.001683385347689637</v>
+        <v>-0.001683385285275563</v>
       </c>
       <c r="I32" t="n">
-        <v>2.814002784156895</v>
+        <v>2.814003117255999</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4975912544621746</v>
+        <v>0.4975912544176083</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4370127094347055</v>
+        <v>0.4370127093756125</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6622515871817168</v>
+        <v>0.6622515871092365</v>
       </c>
       <c r="M32" t="n">
-        <v>1.217981393556783</v>
+        <v>1.217981393532537</v>
       </c>
       <c r="N32" t="n">
         <v>87</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -2079,31 +2079,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8523752223474758</v>
+        <v>0.8523752223787592</v>
       </c>
       <c r="F33" t="n">
-        <v>1.382146310466306</v>
+        <v>1.382146310453131</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0007145209054328916</v>
+        <v>-0.0007145207645180562</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01224362244431632</v>
+        <v>0.01224362247450017</v>
       </c>
       <c r="I33" t="n">
-        <v>2.798331871231905</v>
+        <v>2.798332204339201</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4969077475057726</v>
+        <v>0.4969077474627178</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4371124859611696</v>
+        <v>0.4371124860214279</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6618040759276225</v>
+        <v>0.6618040759350953</v>
       </c>
       <c r="M33" t="n">
-        <v>1.213401742466685</v>
+        <v>1.213401742447615</v>
       </c>
       <c r="N33" t="n">
         <v>87</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -2129,31 +2129,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8522707386725183</v>
+        <v>0.8522707387038249</v>
       </c>
       <c r="F34" t="n">
-        <v>1.400258903994833</v>
+        <v>1.400258903995645</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03189067952098412</v>
+        <v>0.0318906795648104</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.0123946481557482</v>
+        <v>-0.0123946481099324</v>
       </c>
       <c r="I34" t="n">
-        <v>2.764994676320976</v>
+        <v>2.764995009420093</v>
       </c>
       <c r="J34" t="n">
-        <v>0.49775359473853</v>
+        <v>0.4977535947707479</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4386931959848964</v>
+        <v>0.4386931959956676</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6634835049031524</v>
+        <v>0.6634835049344446</v>
       </c>
       <c r="M34" t="n">
-        <v>1.233091495769174</v>
+        <v>1.233091495753239</v>
       </c>
       <c r="N34" t="n">
         <v>86</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -2179,31 +2179,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2441604758530161</v>
+        <v>0.2441604759161512</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6872206680715445</v>
+        <v>0.6872206681033113</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.006964444212655962</v>
+        <v>-0.006964444196796649</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0004113350486250056</v>
+        <v>-0.0004113350088346124</v>
       </c>
       <c r="I35" t="n">
-        <v>6.868174219108941</v>
+        <v>6.868173993409208</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4961455307540371</v>
+        <v>0.4961455307492627</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4464697797023577</v>
+        <v>0.4464697797474508</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6674546066023344</v>
+        <v>0.6674546066289488</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1636355546635386</v>
+        <v>0.1636355546883264</v>
       </c>
       <c r="N35" t="n">
         <v>83</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -2229,31 +2229,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E36" t="n">
-        <v>0.243310228407552</v>
+        <v>0.243310228491165</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6881661040041795</v>
+        <v>0.6881661040597241</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01932631634974769</v>
+        <v>-0.01932631633945903</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.02961871206218802</v>
+        <v>-0.0296187120766831</v>
       </c>
       <c r="I36" t="n">
-        <v>6.895446358230473</v>
+        <v>6.895446132513545</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4923278495229679</v>
+        <v>0.492327849530473</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4467858394106948</v>
+        <v>0.446785839479962</v>
       </c>
       <c r="L36" t="n">
-        <v>0.6648340377220688</v>
+        <v>0.6648340377741759</v>
       </c>
       <c r="M36" t="n">
-        <v>0.177674671764054</v>
+        <v>0.1776746717842045</v>
       </c>
       <c r="N36" t="n">
         <v>82</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -2279,31 +2279,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2437569256692939</v>
+        <v>0.2437569257305362</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6865832975045862</v>
+        <v>0.6865832975720272</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.004481314861664032</v>
+        <v>-0.004481314905660838</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01625209195913158</v>
+        <v>-0.01625209194310173</v>
       </c>
       <c r="I37" t="n">
-        <v>6.883110526311198</v>
+        <v>6.883110300606652</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4936947525540182</v>
+        <v>0.4936947525951208</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4455460051488691</v>
+        <v>0.4455460051951497</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6650156023759813</v>
+        <v>0.6650156024375022</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1707362674090832</v>
+        <v>0.1707362674406177</v>
       </c>
       <c r="N37" t="n">
         <v>82</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -2329,31 +2329,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2657623285405042</v>
+        <v>0.2657623286248031</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7162934930556351</v>
+        <v>0.716293493043303</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.008892415922446162</v>
+        <v>-0.008892415823424926</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01435344120341142</v>
+        <v>0.01435344119516913</v>
       </c>
       <c r="I38" t="n">
-        <v>12.27546399060474</v>
+        <v>12.27546398797063</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5209605323787021</v>
+        <v>0.5209605324169247</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4743253394093699</v>
+        <v>0.4743253393488288</v>
       </c>
       <c r="L38" t="n">
-        <v>0.7045455300419659</v>
+        <v>0.7045455300294704</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1291973850033893</v>
+        <v>0.129197385003114</v>
       </c>
       <c r="N38" t="n">
         <v>86</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -2379,31 +2379,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2624323594347661</v>
+        <v>0.2624323596122906</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7148563955183294</v>
+        <v>0.7148563956309801</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.003833066505592342</v>
+        <v>-0.003833066576646615</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0215287492534344</v>
+        <v>0.02152874914685299</v>
       </c>
       <c r="I39" t="n">
-        <v>12.27622260901292</v>
+        <v>12.27622260637872</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5208166754634862</v>
+        <v>0.5208166754936636</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4734725520136031</v>
+        <v>0.4734725521505156</v>
       </c>
       <c r="L39" t="n">
-        <v>0.7038652335149908</v>
+        <v>0.7038652336294177</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1248735330739602</v>
+        <v>0.1248735330737512</v>
       </c>
       <c r="N39" t="n">
         <v>86</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -2429,31 +2429,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2651111431247281</v>
+        <v>0.265111143107396</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7181680578149788</v>
+        <v>0.718168057719004</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0319833827770708</v>
+        <v>-0.0319833828651781</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04418611190118327</v>
+        <v>0.04418611201600697</v>
       </c>
       <c r="I40" t="n">
-        <v>12.33087495210095</v>
+        <v>12.33087494946697</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5223296082046286</v>
+        <v>0.5223296081716015</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4756915355442439</v>
+        <v>0.4756915354356195</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7064776405489712</v>
+        <v>0.7064776404514131</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1290531001955777</v>
+        <v>0.1290531001956097</v>
       </c>
       <c r="N40" t="n">
         <v>86</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -2479,31 +2479,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.275055575472224</v>
+        <v>0.2750555754719696</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7258023139520062</v>
+        <v>0.7258023139448115</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.03546695183200654</v>
+        <v>-0.03546695239015207</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04969193507855607</v>
+        <v>0.04969193439649189</v>
       </c>
       <c r="I41" t="n">
-        <v>17.0019342630496</v>
+        <v>17.00195172182734</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5131039700367893</v>
+        <v>0.5131039700493646</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4981330847427268</v>
+        <v>0.4981330846902838</v>
       </c>
       <c r="L41" t="n">
-        <v>0.7151309349922006</v>
+        <v>0.7151309349646935</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1240030030091014</v>
+        <v>0.1240030031255179</v>
       </c>
       <c r="N41" t="n">
         <v>87</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -2529,31 +2529,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2718463028035477</v>
+        <v>0.2718463028049619</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7253876926684584</v>
+        <v>0.7253876926075555</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.06570285891774574</v>
+        <v>-0.06570285778803964</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03378401770856954</v>
+        <v>0.03378401826091704</v>
       </c>
       <c r="I42" t="n">
-        <v>17.01445926186864</v>
+        <v>17.01447672224231</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5133709709392429</v>
+        <v>0.5133709710022911</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4968041962752597</v>
+        <v>0.4968041962263247</v>
       </c>
       <c r="L42" t="n">
-        <v>0.7143977626223417</v>
+        <v>0.7143977626336185</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1257900689047196</v>
+        <v>0.1257900684895384</v>
       </c>
       <c r="N42" t="n">
         <v>87</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -2579,31 +2579,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2696425886059718</v>
+        <v>0.2696425886148082</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7228873602033554</v>
+        <v>0.7228873600535743</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.04713791613954754</v>
+        <v>-0.04713791698759451</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03991641843578009</v>
+        <v>0.03991641839655813</v>
       </c>
       <c r="I43" t="n">
-        <v>17.00485967958306</v>
+        <v>17.00487713908524</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5104025345051105</v>
+        <v>0.510402534536146</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4939525793006375</v>
+        <v>0.4939525792857952</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7102815623588952</v>
+        <v>0.7102815623708753</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1344107053577883</v>
+        <v>0.1344107044888548</v>
       </c>
       <c r="N43" t="n">
         <v>87</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -2629,31 +2629,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2735368121132636</v>
+        <v>0.2735368122424737</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7366781963057044</v>
+        <v>0.7366781963538616</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1129165248871686</v>
+        <v>-0.1129165246475168</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03737302443357748</v>
+        <v>0.03737302394966946</v>
       </c>
       <c r="I44" t="n">
-        <v>22.12382543940747</v>
+        <v>22.12382554549953</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5243947166920121</v>
+        <v>0.524394716785504</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4949137914061152</v>
+        <v>0.4949137913801003</v>
       </c>
       <c r="L44" t="n">
-        <v>0.7210613564867216</v>
+        <v>0.7210613565368584</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1508816923743429</v>
+        <v>0.1508816923699017</v>
       </c>
       <c r="N44" t="n">
         <v>87</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -2679,31 +2679,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2720497003567631</v>
+        <v>0.2720497004049101</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7395870390789788</v>
+        <v>0.73958703909281</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1108488220306754</v>
+        <v>-0.1108488216376031</v>
       </c>
       <c r="H45" t="n">
-        <v>0.007131086337722081</v>
+        <v>0.007131086054641855</v>
       </c>
       <c r="I45" t="n">
-        <v>22.16933068755438</v>
+        <v>22.16933079365188</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5286683436495224</v>
+        <v>0.5286683437667066</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4930801454719421</v>
+        <v>0.493080145369041</v>
       </c>
       <c r="L45" t="n">
-        <v>0.7229234035745149</v>
+        <v>0.7229234035900259</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1561113094488882</v>
+        <v>0.156111309442569</v>
       </c>
       <c r="N45" t="n">
         <v>87</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -2729,31 +2729,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2790236937163955</v>
+        <v>0.2790236934947857</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7455470271753301</v>
+        <v>0.7455470271072164</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.1003665098272677</v>
+        <v>-0.1003665096380928</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0285747482074612</v>
+        <v>0.02857474842431884</v>
       </c>
       <c r="I46" t="n">
-        <v>22.13729768931329</v>
+        <v>22.13729779540444</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5295588477873353</v>
+        <v>0.529558847733768</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4983461689603732</v>
+        <v>0.4983461689149852</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7271736225877086</v>
+        <v>0.7271736225175932</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1644958733301876</v>
+        <v>0.1644958733313487</v>
       </c>
       <c r="N46" t="n">
         <v>87</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -2779,31 +2779,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2806966431473236</v>
+        <v>0.2806966435244688</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7517627101364753</v>
+        <v>0.7517627103705981</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.1834066017769942</v>
+        <v>-0.1834066019906686</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05361918331504967</v>
+        <v>0.05361918307926317</v>
       </c>
       <c r="I47" t="n">
-        <v>27.83797573462672</v>
+        <v>27.83797300299742</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5415913491948753</v>
+        <v>0.5415913493416403</v>
       </c>
       <c r="K47" t="n">
-        <v>0.489077279548958</v>
+        <v>0.4890772794962127</v>
       </c>
       <c r="L47" t="n">
-        <v>0.7297381550211932</v>
+        <v>0.7297381550947677</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1806360912386834</v>
+        <v>0.1806360919158674</v>
       </c>
       <c r="N47" t="n">
         <v>87</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -2829,31 +2829,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.288187242107072</v>
+        <v>0.2881872422231556</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7586917763191054</v>
+        <v>0.7586917766202481</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1704607047534523</v>
+        <v>-0.1704607049573497</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03904871403256038</v>
+        <v>0.03904871413737965</v>
       </c>
       <c r="I48" t="n">
-        <v>27.84706419252842</v>
+        <v>27.84706146090642</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5384706665443594</v>
+        <v>0.5384706665576647</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4996794126961834</v>
+        <v>0.4996794130225587</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7345952451528184</v>
+        <v>0.7345952453845754</v>
       </c>
       <c r="M48" t="n">
-        <v>0.189691953580279</v>
+        <v>0.1896919538872581</v>
       </c>
       <c r="N48" t="n">
         <v>87</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -2879,31 +2879,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2789805793073185</v>
+        <v>0.2789805793715125</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7513093857440256</v>
+        <v>0.7513093860495074</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1521283255290768</v>
+        <v>-0.1521283253862293</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03778269915881083</v>
+        <v>0.03778269922565869</v>
       </c>
       <c r="I49" t="n">
-        <v>27.85093692237299</v>
+        <v>27.85093419085146</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5435230076780643</v>
+        <v>0.5435230079596309</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4863043495172039</v>
+        <v>0.4863043494702404</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7293210405814166</v>
+        <v>0.7293210407599376</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1804345113117381</v>
+        <v>0.1804345118621099</v>
       </c>
       <c r="N49" t="n">
         <v>87</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -2929,31 +2929,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2924659081028179</v>
+        <v>0.2924659085495206</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7582287278000599</v>
+        <v>0.7582287274313162</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.2009224370456764</v>
+        <v>-0.200922433917583</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03142591511368664</v>
+        <v>0.03142591602511402</v>
       </c>
       <c r="I50" t="n">
-        <v>32.56752837427476</v>
+        <v>32.56751102334394</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5386541847549822</v>
+        <v>0.538654185201457</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4858216220555873</v>
+        <v>0.4858216222243913</v>
       </c>
       <c r="L50" t="n">
-        <v>0.7253764396579035</v>
+        <v>0.7253764401025062</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2207709773736289</v>
+        <v>0.2207709746464204</v>
       </c>
       <c r="N50" t="n">
         <v>87</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -2979,31 +2979,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2881054297938151</v>
+        <v>0.2881054297072038</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7624833059502634</v>
+        <v>0.7624833063978829</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.2258296301909581</v>
+        <v>-0.2258296322815454</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0382073369167415</v>
+        <v>0.0382073360443087</v>
       </c>
       <c r="I51" t="n">
-        <v>32.67868981604595</v>
+        <v>32.67867246439744</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5525603003429871</v>
+        <v>0.5525603005092494</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4893097438373666</v>
+        <v>0.4893097430635732</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7380697195586075</v>
+        <v>0.7380697191700876</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1913997934259777</v>
+        <v>0.1913997967073373</v>
       </c>
       <c r="N51" t="n">
         <v>87</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -3029,31 +3029,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2765672700310595</v>
+        <v>0.2765672708291191</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7537858259256474</v>
+        <v>0.7537858265372366</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.2117401659553479</v>
+        <v>-0.2117401662205793</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02689552663326822</v>
+        <v>0.02689552576606502</v>
       </c>
       <c r="I52" t="n">
-        <v>32.65213166419416</v>
+        <v>32.65211431273097</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5319497952430099</v>
+        <v>0.5319497953316987</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4855707655502627</v>
+        <v>0.4855707658187028</v>
       </c>
       <c r="L52" t="n">
-        <v>0.7202427042436099</v>
+        <v>0.7202427044900891</v>
       </c>
       <c r="M52" t="n">
-        <v>0.222358985314907</v>
+        <v>0.2223589865898125</v>
       </c>
       <c r="N52" t="n">
         <v>87</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -3079,31 +3079,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2400001004308706</v>
+        <v>0.2400001003598686</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7635761236520378</v>
+        <v>0.763576123014605</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.2849733779997905</v>
+        <v>-0.2849733765909832</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0873106228071947</v>
+        <v>0.0873106256117353</v>
       </c>
       <c r="I53" t="n">
-        <v>37.73632355546862</v>
+        <v>37.73634008601906</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5473537758329715</v>
+        <v>0.5473537760720193</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4562981592446317</v>
+        <v>0.4562981590657523</v>
       </c>
       <c r="L53" t="n">
-        <v>0.7126037931758785</v>
+        <v>0.712603793244951</v>
       </c>
       <c r="M53" t="n">
-        <v>0.2743070005720022</v>
+        <v>0.274306998618185</v>
       </c>
       <c r="N53" t="n">
         <v>87</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -3129,31 +3129,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.263205759306517</v>
+        <v>0.2632057573078044</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7586900932686796</v>
+        <v>0.7586900915271938</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2608016061934109</v>
+        <v>-0.2608016074947841</v>
       </c>
       <c r="H54" t="n">
-        <v>0.06526251818183937</v>
+        <v>0.06526251471763089</v>
       </c>
       <c r="I54" t="n">
-        <v>37.62941772573134</v>
+        <v>37.62943425605459</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5232388857686574</v>
+        <v>0.5232388857871699</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4640685386351381</v>
+        <v>0.4640685384070324</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6993844008350336</v>
+        <v>0.6993844006975265</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2940614178920213</v>
+        <v>0.2940614137259148</v>
       </c>
       <c r="N54" t="n">
         <v>87</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -3179,31 +3179,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2458199085422953</v>
+        <v>0.2458199071283902</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7443953208986058</v>
+        <v>0.7443953201055985</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2767599298516643</v>
+        <v>-0.2767599299286871</v>
       </c>
       <c r="H55" t="n">
-        <v>0.05994941512682317</v>
+        <v>0.05994941607121973</v>
       </c>
       <c r="I55" t="n">
-        <v>37.71347924975128</v>
+        <v>37.71349578078517</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5186876478438396</v>
+        <v>0.5186876477855861</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4652515862801639</v>
+        <v>0.4652515862715963</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6967753687968483</v>
+        <v>0.6967753687477628</v>
       </c>
       <c r="M55" t="n">
-        <v>0.2619703785044811</v>
+        <v>0.2619703763817063</v>
       </c>
       <c r="N55" t="n">
         <v>87</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -3229,31 +3229,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2673641029060899</v>
+        <v>0.2673641027885239</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7613376056018596</v>
+        <v>0.7613376054910203</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.202020749144765</v>
+        <v>-0.2020207491321457</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2115215085481736</v>
+        <v>0.2115215080528969</v>
       </c>
       <c r="I56" t="n">
-        <v>42.48015350986188</v>
+        <v>42.48015350268164</v>
       </c>
       <c r="J56" t="n">
-        <v>0.51282304226229</v>
+        <v>0.5128230423018446</v>
       </c>
       <c r="K56" t="n">
-        <v>0.4764810725100796</v>
+        <v>0.476481072290904</v>
       </c>
       <c r="L56" t="n">
-        <v>0.7000154892111361</v>
+        <v>0.7000154890909266</v>
       </c>
       <c r="M56" t="n">
-        <v>0.2993547470277416</v>
+        <v>0.2993547470270124</v>
       </c>
       <c r="N56" t="n">
         <v>87</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -3279,31 +3279,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.302476760723862</v>
+        <v>0.3024767605089635</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7689853104363101</v>
+        <v>0.7689853101143301</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2103370617596738</v>
+        <v>-0.2103370617111864</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1805919737645354</v>
+        <v>0.1805919742464539</v>
       </c>
       <c r="I57" t="n">
-        <v>42.48758652134283</v>
+        <v>42.48758651416201</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5418524378514267</v>
+        <v>0.5418524377338489</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4695722243849074</v>
+        <v>0.4695722239932199</v>
       </c>
       <c r="L57" t="n">
-        <v>0.7170091619493603</v>
+        <v>0.7170091616039876</v>
       </c>
       <c r="M57" t="n">
-        <v>0.2779141402439082</v>
+        <v>0.2779141402439736</v>
       </c>
       <c r="N57" t="n">
         <v>87</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -3329,31 +3329,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2764461927282029</v>
+        <v>0.2764461927910994</v>
       </c>
       <c r="F58" t="n">
-        <v>0.787635608626876</v>
+        <v>0.787635608898228</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2032649750966584</v>
+        <v>-0.2032649747962978</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2058238926829858</v>
+        <v>0.2058238923899012</v>
       </c>
       <c r="I58" t="n">
-        <v>42.3493812048912</v>
+        <v>42.34938119771078</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5309115367439718</v>
+        <v>0.5309115365538815</v>
       </c>
       <c r="K58" t="n">
-        <v>0.4701079662374282</v>
+        <v>0.470107966905202</v>
       </c>
       <c r="L58" t="n">
-        <v>0.7091322583042859</v>
+        <v>0.7091322586046598</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3427846148958683</v>
+        <v>0.3427846148979303</v>
       </c>
       <c r="N58" t="n">
         <v>87</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -3379,31 +3379,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3442576941705901</v>
+        <v>0.3442576933516716</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8594857304115444</v>
+        <v>0.8594857302441523</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2871722193997357</v>
+        <v>-0.2871722243581303</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1389331395251929</v>
+        <v>0.1389331331806147</v>
       </c>
       <c r="I59" t="n">
-        <v>47.49498182866965</v>
+        <v>47.49499773121499</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5358825436519609</v>
+        <v>0.5358825437195094</v>
       </c>
       <c r="K59" t="n">
-        <v>0.4493418881032936</v>
+        <v>0.4493418881355264</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6993412850641156</v>
+        <v>0.699341285136586</v>
       </c>
       <c r="M59" t="n">
-        <v>0.499637356275446</v>
+        <v>0.4996373558860663</v>
       </c>
       <c r="N59" t="n">
         <v>86</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -3429,31 +3429,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3327185906643156</v>
+        <v>0.3327185914234823</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8309796470086543</v>
+        <v>0.830979647830799</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3039975223354645</v>
+        <v>-0.3039975215498885</v>
       </c>
       <c r="H60" t="n">
-        <v>0.09982162171843356</v>
+        <v>0.09982162290287988</v>
       </c>
       <c r="I60" t="n">
-        <v>47.79402366184707</v>
+        <v>47.79403956602448</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5115779594760755</v>
+        <v>0.5115779595346048</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5036109394769201</v>
+        <v>0.5036109393984646</v>
       </c>
       <c r="L60" t="n">
-        <v>0.7178690597752011</v>
+        <v>0.7178690597618717</v>
       </c>
       <c r="M60" t="n">
-        <v>0.4185584627744547</v>
+        <v>0.4185584644295206</v>
       </c>
       <c r="N60" t="n">
         <v>87</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -3479,31 +3479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3132629593059587</v>
+        <v>0.3132629611415175</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8177545745184815</v>
+        <v>0.8177545753502355</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2649618643455369</v>
+        <v>-0.2649618596989853</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09168652275104705</v>
+        <v>0.09168652720347836</v>
       </c>
       <c r="I61" t="n">
-        <v>47.92307438899668</v>
+        <v>47.92309029207442</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5071405222576727</v>
+        <v>0.5071405219919038</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4638694034582437</v>
+        <v>0.4638694031513799</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6872891187706175</v>
+        <v>0.6872891183674001</v>
       </c>
       <c r="M61" t="n">
-        <v>0.4431209895337846</v>
+        <v>0.4431209916941796</v>
       </c>
       <c r="N61" t="n">
         <v>87</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -3529,31 +3529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4135299956339371</v>
+        <v>0.4135299955611665</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9893457056053079</v>
+        <v>0.9893457052494056</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3221880051940502</v>
+        <v>-0.3221880048079129</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2395575876844873</v>
+        <v>0.2395575883366519</v>
       </c>
       <c r="I62" t="n">
-        <v>53.0615487663372</v>
+        <v>53.06154693581423</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5191738309792003</v>
+        <v>0.5191738311222218</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5181617809869246</v>
+        <v>0.5181617807089823</v>
       </c>
       <c r="L62" t="n">
-        <v>0.7335073946792635</v>
+        <v>0.7335073945841507</v>
       </c>
       <c r="M62" t="n">
-        <v>0.6639064897638072</v>
+        <v>0.6639064893385302</v>
       </c>
       <c r="N62" t="n">
         <v>87</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -3579,31 +3579,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4224107794295011</v>
+        <v>0.4224107793018424</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9963395033001964</v>
+        <v>0.9963395031710741</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.300853684837648</v>
+        <v>-0.3008536843905745</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1763072528099769</v>
+        <v>0.1763072528699468</v>
       </c>
       <c r="I63" t="n">
-        <v>53.24359216800963</v>
+        <v>53.2435903373719</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5677940505241034</v>
+        <v>0.5677940504489214</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5185616249988806</v>
+        <v>0.5185616248923104</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7689578939916332</v>
+        <v>0.7689578938642515</v>
       </c>
       <c r="M63" t="n">
-        <v>0.6335583344131348</v>
+        <v>0.6335583343647252</v>
       </c>
       <c r="N63" t="n">
         <v>87</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -3629,31 +3629,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4167767339881241</v>
+        <v>0.4167767345697317</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9942035113739998</v>
+        <v>0.9942035116879796</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3102229163342827</v>
+        <v>-0.3102229165191375</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1756573976367122</v>
+        <v>0.1756573968508519</v>
       </c>
       <c r="I64" t="n">
-        <v>53.51067639382715</v>
+        <v>53.51067456315126</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5400606143261364</v>
+        <v>0.5400606142146909</v>
       </c>
       <c r="K64" t="n">
-        <v>0.537565754719687</v>
+        <v>0.5375657545758391</v>
       </c>
       <c r="L64" t="n">
-        <v>0.7619989552444744</v>
+        <v>0.7619989550640082</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6385908034373055</v>
+        <v>0.6385908041414775</v>
       </c>
       <c r="N64" t="n">
         <v>87</v>

--- a/publication/analyses/outputs/rigid_transformations/df_icp_idpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/df_icp_idpt.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3645290523579833</v>
+        <v>0.3645290551916942</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9922315573551798</v>
+        <v>0.9922315603859378</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3989909045728837</v>
+        <v>-0.3989908995869769</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6917035583350639</v>
+        <v>-0.6917035518058015</v>
       </c>
       <c r="I2" t="n">
-        <v>-48.02076657392433</v>
+        <v>-48.0207840007515</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5330771857589729</v>
+        <v>0.5330771856634484</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5219253826812318</v>
+        <v>0.5219253827476487</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7460411456908103</v>
+        <v>0.7460411456690188</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6541758726426976</v>
+        <v>0.6541758772644581</v>
       </c>
       <c r="N2" t="n">
         <v>87</v>
@@ -579,31 +579,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.384527066065689</v>
+        <v>0.3845270665183238</v>
       </c>
       <c r="F3" t="n">
-        <v>1.027036172211028</v>
+        <v>1.027036172664577</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4691201854642486</v>
+        <v>-0.4691201825488633</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6318614983934481</v>
+        <v>-0.6318614976479466</v>
       </c>
       <c r="I3" t="n">
-        <v>-47.87202465210029</v>
+        <v>-47.87204207976546</v>
       </c>
       <c r="J3" t="n">
-        <v>0.582953826830233</v>
+        <v>0.5829538268668057</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5264620275119652</v>
+        <v>0.52646202712588</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7854918399499911</v>
+        <v>0.7854918397183668</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6616690021467497</v>
+        <v>0.6616690031256521</v>
       </c>
       <c r="N3" t="n">
         <v>87</v>
@@ -629,31 +629,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3592427300277322</v>
+        <v>0.3592427313120909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9756437512419645</v>
+        <v>0.9756437532052584</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5274935511259287</v>
+        <v>-0.5274935586879224</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.614109179993136</v>
+        <v>-0.6141091870746891</v>
       </c>
       <c r="I4" t="n">
-        <v>-47.53006689505972</v>
+        <v>-47.53008432436314</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5560243931174252</v>
+        <v>0.5560243933662501</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5193163560790554</v>
+        <v>0.5193163569403313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.760823634906822</v>
+        <v>0.7608236356765504</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6107602851402728</v>
+        <v>0.6107602873176727</v>
       </c>
       <c r="N4" t="n">
         <v>87</v>
@@ -679,31 +679,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3895421958381486</v>
+        <v>0.3895421956629035</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9187490842679114</v>
+        <v>0.9187490842926317</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3330259640630402</v>
+        <v>-0.3330259640172244</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.6902268689834727</v>
+        <v>-0.6902268687020978</v>
       </c>
       <c r="I5" t="n">
-        <v>-42.92773922823741</v>
+        <v>-42.92773912476871</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5375474859180434</v>
+        <v>0.5375474859426322</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4892252021207417</v>
+        <v>0.4892252021404271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7268415219336948</v>
+        <v>0.7268415219651296</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5619619932310814</v>
+        <v>0.5619619932307656</v>
       </c>
       <c r="N5" t="n">
         <v>87</v>
@@ -729,31 +729,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3446446580365429</v>
+        <v>0.3446446581341946</v>
       </c>
       <c r="F6" t="n">
-        <v>0.855049066537804</v>
+        <v>0.8550490665126353</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3136952961552879</v>
+        <v>-0.3136952957990502</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6829373366146569</v>
+        <v>-0.6829373368781262</v>
       </c>
       <c r="I6" t="n">
-        <v>-43.06846427407497</v>
+        <v>-43.06846417061262</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5464996784128192</v>
+        <v>0.5464996789942094</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4975761762958325</v>
+        <v>0.4975761756306532</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7390831818696028</v>
+        <v>0.739083181851678</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4299592497721418</v>
+        <v>0.4299592497529777</v>
       </c>
       <c r="N6" t="n">
         <v>86</v>
@@ -779,31 +779,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3396046678599151</v>
+        <v>0.3396046682517532</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8692186313620269</v>
+        <v>0.8692186317187375</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2789081152672566</v>
+        <v>-0.2789081150417019</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6769631857300737</v>
+        <v>-0.6769631864689813</v>
       </c>
       <c r="I7" t="n">
-        <v>-43.44247321977873</v>
+        <v>-43.44247311632434</v>
       </c>
       <c r="J7" t="n">
-        <v>0.539185955529852</v>
+        <v>0.5391859555915083</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4880799399308711</v>
+        <v>0.4880799404961969</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7272850351846669</v>
+        <v>0.7272850356097662</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4760225905388565</v>
+        <v>0.4760225905406929</v>
       </c>
       <c r="N7" t="n">
         <v>86</v>
@@ -829,31 +829,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3308000126602602</v>
+        <v>0.330800010773889</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8606213629284795</v>
+        <v>0.8606213617319497</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2301859646349271</v>
+        <v>-0.2301859649850826</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.612305686322145</v>
+        <v>-0.6123056865393437</v>
       </c>
       <c r="I8" t="n">
-        <v>-37.81065987365263</v>
+        <v>-37.8106574841167</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5440857697460553</v>
+        <v>0.5440857699063842</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5032750824615333</v>
+        <v>0.5032750803401369</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7411579679574527</v>
+        <v>0.7411579666346398</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4374402780518259</v>
+        <v>0.4374402779390152</v>
       </c>
       <c r="N8" t="n">
         <v>87</v>
@@ -879,31 +879,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3435551126037013</v>
+        <v>0.3435551109163796</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8648108478593094</v>
+        <v>0.8648108465375288</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2060248948824324</v>
+        <v>-0.2060248940942415</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6723041412080306</v>
+        <v>-0.6723041411401027</v>
       </c>
       <c r="I9" t="n">
-        <v>-37.64856410806597</v>
+        <v>-37.6485617184089</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5327475331384464</v>
+        <v>0.5327475326593397</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4988840675263933</v>
+        <v>0.4988840658785275</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7298665952739438</v>
+        <v>0.7298665937978703</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4638885164329766</v>
+        <v>0.4638885162912132</v>
       </c>
       <c r="N9" t="n">
         <v>87</v>
@@ -929,31 +929,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3577778601170908</v>
+        <v>0.3577778587679972</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8548596996122887</v>
+        <v>0.8548596985850181</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2626605323093827</v>
+        <v>-0.2626605321650004</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.635614087631609</v>
+        <v>-0.6356140861956305</v>
       </c>
       <c r="I10" t="n">
-        <v>-37.59588092467968</v>
+        <v>-37.59587853488313</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5257350237539999</v>
+        <v>0.525735023208485</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4971996603853891</v>
+        <v>0.4971996591498524</v>
       </c>
       <c r="L10" t="n">
-        <v>0.723605429421978</v>
+        <v>0.7236054281766794</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4551706147504012</v>
+        <v>0.4551706148008062</v>
       </c>
       <c r="N10" t="n">
         <v>87</v>
@@ -979,31 +979,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3144301794385211</v>
+        <v>0.3144301803785092</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7978803691396676</v>
+        <v>0.7978803696816794</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1794723523767061</v>
+        <v>-0.1794723523681796</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5788370293569756</v>
+        <v>-0.5788370291915612</v>
       </c>
       <c r="I11" t="n">
-        <v>-33.04556133098433</v>
+        <v>-33.04556133510502</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5584121141481466</v>
+        <v>0.5584121147316223</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5027929536025129</v>
+        <v>0.5027929538148729</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7514152270347876</v>
+        <v>0.7514152276104921</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2683062430111125</v>
+        <v>0.2683062430105446</v>
       </c>
       <c r="N11" t="n">
         <v>87</v>
@@ -1029,31 +1029,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3076451722407686</v>
+        <v>0.307645171960897</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7883851852221573</v>
+        <v>0.7883851849473605</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1959385358475174</v>
+        <v>-0.1959385361989803</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5798639415963862</v>
+        <v>-0.5798639417812979</v>
       </c>
       <c r="I12" t="n">
-        <v>-32.97022288646507</v>
+        <v>-32.97022289058798</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5383648390220968</v>
+        <v>0.5383648385178035</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5005018182723375</v>
+        <v>0.500501818382485</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7350773904761347</v>
+        <v>0.7350773901817921</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2849779470214137</v>
+        <v>0.2849779470204979</v>
       </c>
       <c r="N12" t="n">
         <v>87</v>
@@ -1079,31 +1079,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3181889088114787</v>
+        <v>0.3181889089222515</v>
       </c>
       <c r="F13" t="n">
-        <v>0.790761672909103</v>
+        <v>0.79076167287039</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1899768872748382</v>
+        <v>-0.189976887711282</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5764455892305591</v>
+        <v>-0.5764455889702162</v>
       </c>
       <c r="I13" t="n">
-        <v>-32.93627377302002</v>
+        <v>-32.93627377713958</v>
       </c>
       <c r="J13" t="n">
-        <v>0.537533634845125</v>
+        <v>0.5375336345855269</v>
       </c>
       <c r="K13" t="n">
-        <v>0.498774140395188</v>
+        <v>0.4987741406134392</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7332926098882838</v>
+        <v>0.7332926098464387</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2959492720470949</v>
+        <v>0.2959492720474515</v>
       </c>
       <c r="N13" t="n">
         <v>87</v>
@@ -1129,31 +1129,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2876329644487145</v>
+        <v>0.2876329645427559</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7724754550435009</v>
+        <v>0.7724754550204788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05434043929102472</v>
+        <v>-0.05434043963856539</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5457663678508311</v>
+        <v>-0.5457663677091773</v>
       </c>
       <c r="I14" t="n">
-        <v>-28.48700949138434</v>
+        <v>-28.48700948959615</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5411030658089457</v>
+        <v>0.541103065756489</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4991671873667871</v>
+        <v>0.4991671873882419</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7361796036100902</v>
+        <v>0.7361796035860811</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2340041022571752</v>
+        <v>0.2340041022566285</v>
       </c>
       <c r="N14" t="n">
         <v>87</v>
@@ -1179,31 +1179,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2800018218412381</v>
+        <v>0.2800018216810595</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7642411307990803</v>
+        <v>0.7642411308457521</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04541011143669493</v>
+        <v>-0.04541011166941189</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5654393908345696</v>
+        <v>-0.5654393909268833</v>
       </c>
       <c r="I15" t="n">
-        <v>-28.39016044379415</v>
+        <v>-28.39016044200871</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5347301026589225</v>
+        <v>0.5347301024417068</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4992402982806358</v>
+        <v>0.499240298584689</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7315580346882672</v>
+        <v>0.7315580347369904</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2211048346104511</v>
+        <v>0.2211048346104875</v>
       </c>
       <c r="N15" t="n">
         <v>87</v>
@@ -1229,31 +1229,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.282752769812853</v>
+        <v>0.2827527697599725</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7784102795476225</v>
+        <v>0.7784102795944295</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.05186802387282796</v>
+        <v>-0.05186802403846968</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5461198973823116</v>
+        <v>-0.5461198970844521</v>
       </c>
       <c r="I16" t="n">
-        <v>-28.35233063759941</v>
+        <v>-28.3523306358123</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5413536917955863</v>
+        <v>0.541353691899363</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4990331303182693</v>
+        <v>0.4990331302789138</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7362729689292971</v>
+        <v>0.7362729689789254</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2526354656999559</v>
+        <v>0.252635465699556</v>
       </c>
       <c r="N16" t="n">
         <v>87</v>
@@ -1279,31 +1279,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3009660984975264</v>
+        <v>0.3009660986265882</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7817265036456815</v>
+        <v>0.7817265035686972</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02858337581960768</v>
+        <v>-0.02858337557529467</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.3726299522269301</v>
+        <v>-0.3726299522514864</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.91398113846195</v>
+        <v>-22.91398097383421</v>
       </c>
       <c r="J17" t="n">
-        <v>0.536626768975122</v>
+        <v>0.5366267689307129</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4973145825018754</v>
+        <v>0.4973145824243886</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7316352118027765</v>
+        <v>0.731635211717534</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2753293361638143</v>
+        <v>0.2753293361717059</v>
       </c>
       <c r="N17" t="n">
         <v>87</v>
@@ -1329,31 +1329,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.290584618628926</v>
+        <v>0.2905846187521479</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7667923863751021</v>
+        <v>0.7667923863273766</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0163443079925969</v>
+        <v>-0.01634430779188278</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.4045028270380158</v>
+        <v>-0.404502827237593</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.81757639796242</v>
+        <v>-22.81757623333023</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5357990410603412</v>
+        <v>0.5357990410744516</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4896117069371985</v>
+        <v>0.4896117068449335</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7258100550220686</v>
+        <v>0.7258100549702455</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2473263589505029</v>
+        <v>0.2473263589545511</v>
       </c>
       <c r="N18" t="n">
         <v>87</v>
@@ -1379,31 +1379,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2937567511294387</v>
+        <v>0.2937567515668686</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7731756085484358</v>
+        <v>0.7731756085905394</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0443060468401768</v>
+        <v>-0.04430604664349858</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3975636856674782</v>
+        <v>-0.3975636862906526</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.87170450045203</v>
+        <v>-22.87170433581334</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5359234968596214</v>
+        <v>0.5359234969343449</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4920848795773197</v>
+        <v>0.4920848795614441</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7275723491137288</v>
+        <v>0.7275723491580323</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2616084831562796</v>
+        <v>0.2616084831575632</v>
       </c>
       <c r="N19" t="n">
         <v>87</v>
@@ -1429,31 +1429,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.263367782362777</v>
+        <v>0.2633677823384019</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7222828472901073</v>
+        <v>0.7222828471858486</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05662861188255874</v>
+        <v>0.05662861202040403</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2140278942727036</v>
+        <v>-0.2140278944133911</v>
       </c>
       <c r="I20" t="n">
-        <v>-18.35113268878495</v>
+        <v>-18.35113269096535</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4887907900512687</v>
+        <v>0.488790789975428</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452090739575813</v>
+        <v>0.4520907394910254</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6658096373958168</v>
+        <v>0.6658096372825683</v>
       </c>
       <c r="M20" t="n">
-        <v>0.279982210578365</v>
+        <v>0.2799822105786849</v>
       </c>
       <c r="N20" t="n">
         <v>82</v>
@@ -1479,31 +1479,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2683866849627811</v>
+        <v>0.2683866849991582</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7444665910481139</v>
+        <v>0.7444665910112278</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0271864858010531</v>
+        <v>0.02718648590956718</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.258787357059191</v>
+        <v>-0.2587873572128387</v>
       </c>
       <c r="I21" t="n">
-        <v>-18.18446853377413</v>
+        <v>-18.18446853595456</v>
       </c>
       <c r="J21" t="n">
-        <v>0.496936822958597</v>
+        <v>0.4969368230060908</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4728705517345327</v>
+        <v>0.4728705516265186</v>
       </c>
       <c r="L21" t="n">
-        <v>0.685968486674064</v>
+        <v>0.6859684866340107</v>
       </c>
       <c r="M21" t="n">
-        <v>0.289271050188062</v>
+        <v>0.2892710501880598</v>
       </c>
       <c r="N21" t="n">
         <v>84</v>
@@ -1529,31 +1529,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2538810310223329</v>
+        <v>0.2538810311082668</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7478614842516561</v>
+        <v>0.7478614843001423</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03105973585053334</v>
+        <v>0.03105973562873032</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2606093014759381</v>
+        <v>-0.2606093011310122</v>
       </c>
       <c r="I22" t="n">
-        <v>-18.08951969510827</v>
+        <v>-18.08951969728886</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5072912132782336</v>
+        <v>0.5072912132708114</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4738633524203062</v>
+        <v>0.4738633525049458</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6941835865506426</v>
+        <v>0.6941835866029954</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2782192441057881</v>
+        <v>0.2782192441054702</v>
       </c>
       <c r="N22" t="n">
         <v>84</v>
@@ -1579,31 +1579,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2672979938452514</v>
+        <v>0.2672979938042512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7496487585375824</v>
+        <v>0.7496487585453822</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004712900748131688</v>
+        <v>-0.004712900545257526</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2398405606521123</v>
+        <v>-0.2398405608051348</v>
       </c>
       <c r="I23" t="n">
-        <v>-13.51300900717893</v>
+        <v>-13.51300864749045</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5071436785347407</v>
+        <v>0.5071436785634139</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4341613569806931</v>
+        <v>0.4341613569876261</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6676007748445663</v>
+        <v>0.6676007748708567</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3410021504387708</v>
+        <v>0.3410021504044818</v>
       </c>
       <c r="N23" t="n">
         <v>64</v>
@@ -1629,31 +1629,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2636116138514468</v>
+        <v>0.2636116138008838</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7571277150431569</v>
+        <v>0.7571277150310417</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.009685282497002845</v>
+        <v>-0.009685282860118605</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.2269686003268134</v>
+        <v>-0.2269686001101832</v>
       </c>
       <c r="I24" t="n">
-        <v>-13.5561046520495</v>
+        <v>-13.55610429236606</v>
       </c>
       <c r="J24" t="n">
-        <v>0.506783327861462</v>
+        <v>0.5067833279357139</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4431779539927763</v>
+        <v>0.4431779539375422</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6732280745063751</v>
+        <v>0.6732280745259095</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3464193074626187</v>
+        <v>0.346419307398228</v>
       </c>
       <c r="N24" t="n">
         <v>66</v>
@@ -1679,31 +1679,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2634827042166989</v>
+        <v>0.263482704030702</v>
       </c>
       <c r="F25" t="n">
-        <v>0.742363044856731</v>
+        <v>0.742363044708545</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04406112843275878</v>
+        <v>0.0440611286605872</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.2544176420827853</v>
+        <v>-0.2544176420543067</v>
       </c>
       <c r="I25" t="n">
-        <v>-13.49438552932638</v>
+        <v>-13.49438516966302</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4953401198656973</v>
+        <v>0.4953401197194118</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4543861158963304</v>
+        <v>0.4543861158486869</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6721819520545882</v>
+        <v>0.6721819519145822</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3150782659928157</v>
+        <v>0.3150782659423896</v>
       </c>
       <c r="N25" t="n">
         <v>68</v>
@@ -1729,31 +1729,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2014837726234803</v>
+        <v>0.2014837727476008</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6538306487874023</v>
+        <v>0.6538306488338487</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07067009090542342</v>
+        <v>0.07067009103377586</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1388721032187732</v>
+        <v>-0.1388721030476177</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.375663387295022</v>
+        <v>-8.375662322571992</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4811016688088652</v>
+        <v>0.4811016688037022</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3886598199276165</v>
+        <v>0.3886598199018724</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6184781898796774</v>
+        <v>0.6184781898594833</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2120831109186238</v>
+        <v>0.2120831111206858</v>
       </c>
       <c r="N26" t="n">
         <v>51</v>
@@ -1779,31 +1779,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2024237809525827</v>
+        <v>0.2024237810348795</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6563686925048443</v>
+        <v>0.6563686926098568</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06361532304140383</v>
+        <v>0.06361532286854299</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.144160571205191</v>
+        <v>-0.1441605711841589</v>
       </c>
       <c r="I27" t="n">
-        <v>-8.481482323639021</v>
+        <v>-8.481481258891522</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4764877869352065</v>
+        <v>0.4764877870103236</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3928134312889125</v>
+        <v>0.392813431265388</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6175297587156264</v>
+        <v>0.617529758758623</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2224339398588692</v>
+        <v>0.2224339400493142</v>
       </c>
       <c r="N27" t="n">
         <v>52</v>
@@ -1829,31 +1829,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2058324789308117</v>
+        <v>0.2058324790049984</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6534967409605736</v>
+        <v>0.6534967409714533</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07495102083964866</v>
+        <v>0.07495102105173146</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.1333621250791452</v>
+        <v>-0.1333621251779391</v>
       </c>
       <c r="I28" t="n">
-        <v>-8.357456308588656</v>
+        <v>-8.357455243886204</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4810158448048831</v>
+        <v>0.4810158447930951</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3828196618144911</v>
+        <v>0.3828196617264764</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6147577867950245</v>
+        <v>0.6147577867309927</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2216548082514416</v>
+        <v>0.2216548084611198</v>
       </c>
       <c r="N28" t="n">
         <v>50</v>
@@ -1879,31 +1879,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2375123142010394</v>
+        <v>0.2375123142751702</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6339775048944938</v>
+        <v>0.6339775049114402</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04269381335569733</v>
+        <v>-0.04269381337371669</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.03618395102267868</v>
+        <v>-0.03618395104450656</v>
       </c>
       <c r="I29" t="n">
-        <v>-4.144255819468224</v>
+        <v>-4.144255823405403</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4457970018572347</v>
+        <v>0.4457970018617271</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3287638997286448</v>
+        <v>0.3287638997564361</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5539139541749113</v>
+        <v>0.5539139541950218</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3083939170647018</v>
+        <v>0.3083939170635239</v>
       </c>
       <c r="N29" t="n">
         <v>29</v>
@@ -1929,31 +1929,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2395278129630291</v>
+        <v>0.2395278129128498</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6431484468344101</v>
+        <v>0.6431484467896131</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02610055571364001</v>
+        <v>-0.02610055567504332</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.06688062173139997</v>
+        <v>-0.06688062171377851</v>
       </c>
       <c r="I30" t="n">
-        <v>-4.176998277325524</v>
+        <v>-4.176998281263238</v>
       </c>
       <c r="J30" t="n">
-        <v>0.443974891277378</v>
+        <v>0.4439748912539537</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3264290918358214</v>
+        <v>0.3264290917806024</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5510622978225952</v>
+        <v>0.5510622977710133</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3316176542104111</v>
+        <v>0.3316176542091548</v>
       </c>
       <c r="N30" t="n">
         <v>29</v>
@@ -1979,31 +1979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2452538304427346</v>
+        <v>0.2452538304569996</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6453197456138566</v>
+        <v>0.6453197455740344</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.03693819434005263</v>
+        <v>-0.0369381943584699</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0703074369166643</v>
+        <v>-0.07030743681661988</v>
       </c>
       <c r="I31" t="n">
-        <v>-4.166378998043569</v>
+        <v>-4.166379001981874</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4453796216091944</v>
+        <v>0.4453796215599146</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3268739905808303</v>
+        <v>0.3268739905707011</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5524577930149832</v>
+        <v>0.5524577929692616</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3335085621332107</v>
+        <v>0.333508562131869</v>
       </c>
       <c r="N31" t="n">
         <v>29</v>
@@ -2029,31 +2029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E32" t="n">
-        <v>0.85692642754119</v>
+        <v>0.8569264275448086</v>
       </c>
       <c r="F32" t="n">
-        <v>1.38638228480465</v>
+        <v>1.386382284858872</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02304995063241222</v>
+        <v>0.02304995057778569</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.001683385285275563</v>
+        <v>-0.001683385397370785</v>
       </c>
       <c r="I32" t="n">
-        <v>2.814003117255999</v>
+        <v>2.814002915874982</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4975912544176083</v>
+        <v>0.4975912544453465</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4370127093756125</v>
+        <v>0.437012709474613</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6622515871092365</v>
+        <v>0.6622515871954072</v>
       </c>
       <c r="M32" t="n">
-        <v>1.217981393532537</v>
+        <v>1.217981393547401</v>
       </c>
       <c r="N32" t="n">
         <v>87</v>
@@ -2079,31 +2079,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8523752223787592</v>
+        <v>0.8523752223515813</v>
       </c>
       <c r="F33" t="n">
-        <v>1.382146310453131</v>
+        <v>1.382146310460525</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0007145207645180562</v>
+        <v>-0.0007145208275005643</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01224362247450017</v>
+        <v>0.01224362245238808</v>
       </c>
       <c r="I33" t="n">
-        <v>2.798332204339201</v>
+        <v>2.798332002953735</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4969077474627178</v>
+        <v>0.4969077474716308</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4371124860214279</v>
+        <v>0.4371124860016866</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6618040759350953</v>
+        <v>0.6618040759287486</v>
       </c>
       <c r="M33" t="n">
-        <v>1.213401742447615</v>
+        <v>1.213401742459493</v>
       </c>
       <c r="N33" t="n">
         <v>87</v>
@@ -2129,31 +2129,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8522707387038249</v>
+        <v>0.8522707386623779</v>
       </c>
       <c r="F34" t="n">
-        <v>1.400258903995645</v>
+        <v>1.400258903939648</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0318906795648104</v>
+        <v>0.03189067958669511</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.0123946481099324</v>
+        <v>-0.01239464813176028</v>
       </c>
       <c r="I34" t="n">
-        <v>2.764995009420093</v>
+        <v>2.764994808039082</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4977535947707479</v>
+        <v>0.4977535947082024</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4386931959956676</v>
+        <v>0.4386931958597427</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6634835049344446</v>
+        <v>0.6634835047976489</v>
       </c>
       <c r="M34" t="n">
-        <v>1.233091495753239</v>
+        <v>1.233091495763264</v>
       </c>
       <c r="N34" t="n">
         <v>86</v>
@@ -2179,31 +2179,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2441604759161512</v>
+        <v>0.2441604758980471</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6872206681033113</v>
+        <v>0.6872206680707552</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.006964444196796649</v>
+        <v>-0.006964444250513679</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0004113350088346124</v>
+        <v>-0.0004113350661327786</v>
       </c>
       <c r="I35" t="n">
-        <v>6.868173993409208</v>
+        <v>6.868175012818056</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4961455307492627</v>
+        <v>0.4961455307269917</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4464697797474508</v>
+        <v>0.4464697797633504</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6674546066289488</v>
+        <v>0.6674546066230294</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1636355546883264</v>
+        <v>0.163635554575783</v>
       </c>
       <c r="N35" t="n">
         <v>83</v>
@@ -2229,31 +2229,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E36" t="n">
-        <v>0.243310228491165</v>
+        <v>0.2433102285826042</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6881661040597241</v>
+        <v>0.6881661041170494</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01932631633945903</v>
+        <v>-0.01932631636321958</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0296187120766831</v>
+        <v>-0.02961871206446176</v>
       </c>
       <c r="I36" t="n">
-        <v>6.895446132513545</v>
+        <v>6.895447151999194</v>
       </c>
       <c r="J36" t="n">
-        <v>0.492327849530473</v>
+        <v>0.4923278495756096</v>
       </c>
       <c r="K36" t="n">
-        <v>0.446785839479962</v>
+        <v>0.4467858395548872</v>
       </c>
       <c r="L36" t="n">
-        <v>0.6648340377741759</v>
+        <v>0.6648340378579525</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1776746717842045</v>
+        <v>0.1776746716927513</v>
       </c>
       <c r="N36" t="n">
         <v>82</v>
@@ -2279,31 +2279,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2437569257305362</v>
+        <v>0.2437569258051588</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6865832975720272</v>
+        <v>0.6865832975761783</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.004481314905660838</v>
+        <v>-0.004481314871327413</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01625209194310173</v>
+        <v>-0.0162520920068232</v>
       </c>
       <c r="I37" t="n">
-        <v>6.883110300606652</v>
+        <v>6.883111320036891</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4936947525951208</v>
+        <v>0.4936947525603141</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4455460051951497</v>
+        <v>0.4455460052950447</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6650156024375022</v>
+        <v>0.6650156024785898</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1707362674406177</v>
+        <v>0.1707362672973437</v>
       </c>
       <c r="N37" t="n">
         <v>82</v>
@@ -2329,31 +2329,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2657623286248031</v>
+        <v>0.2657623285918498</v>
       </c>
       <c r="F38" t="n">
-        <v>0.716293493043303</v>
+        <v>0.7162934930558499</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.008892415823424926</v>
+        <v>-0.008892415918182905</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01435344119516913</v>
+        <v>0.01435344118129933</v>
       </c>
       <c r="I38" t="n">
-        <v>12.27546398797063</v>
+        <v>12.27546398943139</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5209605324169247</v>
+        <v>0.5209605324702873</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4743253393488288</v>
+        <v>0.4743253393091776</v>
       </c>
       <c r="L38" t="n">
-        <v>0.7045455300294704</v>
+        <v>0.7045455300422335</v>
       </c>
       <c r="M38" t="n">
-        <v>0.129197385003114</v>
+        <v>0.129197385003228</v>
       </c>
       <c r="N38" t="n">
         <v>86</v>
@@ -2379,31 +2379,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2624323596122906</v>
+        <v>0.2624323595161135</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7148563956309801</v>
+        <v>0.7148563955534493</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.003833066576646615</v>
+        <v>-0.003833066512811456</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02152874914685299</v>
+        <v>0.02152874913099367</v>
       </c>
       <c r="I39" t="n">
-        <v>12.27622260637872</v>
+        <v>12.27622260783959</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5208166754936636</v>
+        <v>0.5208166754387522</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4734725521505156</v>
+        <v>0.4734725520938156</v>
       </c>
       <c r="L39" t="n">
-        <v>0.7038652336294177</v>
+        <v>0.7038652335506461</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1248735330737512</v>
+        <v>0.1248735330739505</v>
       </c>
       <c r="N39" t="n">
         <v>86</v>
@@ -2429,31 +2429,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.265111143107396</v>
+        <v>0.2651111430906931</v>
       </c>
       <c r="F40" t="n">
-        <v>0.718168057719004</v>
+        <v>0.7181680577783834</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0319833828651781</v>
+        <v>-0.03198338290098945</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04418611201600697</v>
+        <v>0.04418611198900635</v>
       </c>
       <c r="I40" t="n">
-        <v>12.33087494946697</v>
+        <v>12.33087495092781</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5223296081716015</v>
+        <v>0.5223296081969011</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4756915354356195</v>
+        <v>0.4756915354975251</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7064776404514131</v>
+        <v>0.706477640511801</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1290531001956097</v>
+        <v>0.1290531001954471</v>
       </c>
       <c r="N40" t="n">
         <v>86</v>
@@ -2479,31 +2479,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2750555754719696</v>
+        <v>0.2750555754125886</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7258023139448115</v>
+        <v>0.7258023137678412</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.03546695239015207</v>
+        <v>-0.03546695198286898</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04969193439649189</v>
+        <v>0.04969193505678504</v>
       </c>
       <c r="I41" t="n">
-        <v>17.00195172182734</v>
+        <v>17.0019342624288</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5131039700493646</v>
+        <v>0.5131039699178365</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4981330846902838</v>
+        <v>0.4981330845968885</v>
       </c>
       <c r="L41" t="n">
-        <v>0.7151309349646935</v>
+        <v>0.715130934805267</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1240030031255179</v>
+        <v>0.12400300300918</v>
       </c>
       <c r="N41" t="n">
         <v>87</v>
@@ -2529,31 +2529,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2718463028049619</v>
+        <v>0.2718463027496654</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7253876926075555</v>
+        <v>0.7253876926278267</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.06570285778803964</v>
+        <v>-0.06570285879865878</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03378401826091704</v>
+        <v>0.03378401759817962</v>
       </c>
       <c r="I42" t="n">
-        <v>17.01447672224231</v>
+        <v>17.01445926124732</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5133709710022911</v>
+        <v>0.5133709708528146</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4968041962263247</v>
+        <v>0.4968041963052805</v>
       </c>
       <c r="L42" t="n">
-        <v>0.7143977626336185</v>
+        <v>0.7143977625811108</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1257900684895384</v>
+        <v>0.125790068904683</v>
       </c>
       <c r="N42" t="n">
         <v>87</v>
@@ -2579,31 +2579,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2696425886148082</v>
+        <v>0.2696425885150415</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7228873600535743</v>
+        <v>0.7228873602150035</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.04713791698759451</v>
+        <v>-0.04713791612721252</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03991641839655813</v>
+        <v>0.03991641854582895</v>
       </c>
       <c r="I43" t="n">
-        <v>17.00487713908524</v>
+        <v>17.00485967896255</v>
       </c>
       <c r="J43" t="n">
-        <v>0.510402534536146</v>
+        <v>0.5104025345029759</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4939525792857952</v>
+        <v>0.4939525793198548</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7102815623708753</v>
+        <v>0.7102815623707255</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1344107044888548</v>
+        <v>0.1344107053579184</v>
       </c>
       <c r="N43" t="n">
         <v>87</v>
@@ -2629,31 +2629,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2735368122424737</v>
+        <v>0.2735368124641692</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7366781963538616</v>
+        <v>0.736678196455878</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1129165246475168</v>
+        <v>-0.1129165248037793</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03737302394966946</v>
+        <v>0.0373730243207433</v>
       </c>
       <c r="I44" t="n">
-        <v>22.12382554549953</v>
+        <v>22.12382426416151</v>
       </c>
       <c r="J44" t="n">
-        <v>0.524394716785504</v>
+        <v>0.5243947169095524</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4949137913801003</v>
+        <v>0.4949137913837923</v>
       </c>
       <c r="L44" t="n">
-        <v>0.7210613565368584</v>
+        <v>0.7210613566296071</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1508816923699017</v>
+        <v>0.1508816924247331</v>
       </c>
       <c r="N44" t="n">
         <v>87</v>
@@ -2679,31 +2679,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2720497004049101</v>
+        <v>0.2720497004143027</v>
       </c>
       <c r="F45" t="n">
-        <v>0.73958703909281</v>
+        <v>0.7395870392167468</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1108488216376031</v>
+        <v>-0.1108488218448542</v>
       </c>
       <c r="H45" t="n">
-        <v>0.007131086054641855</v>
+        <v>0.007131085905200507</v>
       </c>
       <c r="I45" t="n">
-        <v>22.16933079365188</v>
+        <v>22.16932951225223</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5286683437667066</v>
+        <v>0.5286683437741309</v>
       </c>
       <c r="K45" t="n">
-        <v>0.493080145369041</v>
+        <v>0.493080145523045</v>
       </c>
       <c r="L45" t="n">
-        <v>0.7229234035900259</v>
+        <v>0.7229234037004956</v>
       </c>
       <c r="M45" t="n">
-        <v>0.156111309442569</v>
+        <v>0.1561113095182349</v>
       </c>
       <c r="N45" t="n">
         <v>87</v>
@@ -2729,31 +2729,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2790236934947857</v>
+        <v>0.2790236935921945</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7455470271072164</v>
+        <v>0.745547027213198</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.1003665096380928</v>
+        <v>-0.1003665097347834</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02857474842431884</v>
+        <v>0.02857474887736089</v>
       </c>
       <c r="I46" t="n">
-        <v>22.13729779540444</v>
+        <v>22.13729651408182</v>
       </c>
       <c r="J46" t="n">
-        <v>0.529558847733768</v>
+        <v>0.5295588478036979</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4983461689149852</v>
+        <v>0.4983461690031857</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7271736225175932</v>
+        <v>0.7271736226289646</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1644958733313487</v>
+        <v>0.1644958733193197</v>
       </c>
       <c r="N46" t="n">
         <v>87</v>
@@ -2779,31 +2779,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2806966435244688</v>
+        <v>0.2806966435160957</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7517627103705981</v>
+        <v>0.7517627103832827</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.1834066019906686</v>
+        <v>-0.1834066017563032</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05361918307926317</v>
+        <v>0.05361918334205029</v>
       </c>
       <c r="I47" t="n">
-        <v>27.83797300299742</v>
+        <v>27.83797300504665</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5415913493416403</v>
+        <v>0.541591349204672</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4890772794962127</v>
+        <v>0.4890772796675099</v>
       </c>
       <c r="L47" t="n">
-        <v>0.7297381550947677</v>
+        <v>0.7297381551079185</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1806360919158674</v>
+        <v>0.1806360919155348</v>
       </c>
       <c r="N47" t="n">
         <v>87</v>
@@ -2829,31 +2829,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2881872422231556</v>
+        <v>0.2881872421300788</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7586917766202481</v>
+        <v>0.7586917764457983</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1704607049573497</v>
+        <v>-0.1704607050368168</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03904871413737965</v>
+        <v>0.0390487143048972</v>
       </c>
       <c r="I48" t="n">
-        <v>27.84706146090642</v>
+        <v>27.84706146295521</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5384706665576647</v>
+        <v>0.5384706664424079</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4996794130225587</v>
+        <v>0.4996794128820748</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7345952453845754</v>
+        <v>0.7345952452045315</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1896919538872581</v>
+        <v>0.1896919538867656</v>
       </c>
       <c r="N48" t="n">
         <v>87</v>
@@ -2879,31 +2879,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2789805793715125</v>
+        <v>0.278980579323518</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7513093860495074</v>
+        <v>0.7513093859428532</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1521283253862293</v>
+        <v>-0.152128325624858</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03778269922565869</v>
+        <v>0.03778269918518617</v>
       </c>
       <c r="I49" t="n">
-        <v>27.85093419085146</v>
+        <v>27.85093419289976</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5435230079596309</v>
+        <v>0.543523007782255</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4863043494702404</v>
+        <v>0.4863043495038855</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7293210407599376</v>
+        <v>0.7293210406501833</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1804345118621099</v>
+        <v>0.1804345118616107</v>
       </c>
       <c r="N49" t="n">
         <v>87</v>
@@ -2929,31 +2929,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2924659085495206</v>
+        <v>0.2924659080172626</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7582287274313162</v>
+        <v>0.7582287270887855</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.200922433917583</v>
+        <v>-0.200922434072254</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03142591602511402</v>
+        <v>0.03142591623839053</v>
       </c>
       <c r="I50" t="n">
-        <v>32.56751102334394</v>
+        <v>32.56751102562283</v>
       </c>
       <c r="J50" t="n">
-        <v>0.538654185201457</v>
+        <v>0.5386541850266597</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4858216222243913</v>
+        <v>0.4858216218834074</v>
       </c>
       <c r="L50" t="n">
-        <v>0.7253764401025062</v>
+        <v>0.7253764397443297</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2207709746464204</v>
+        <v>0.2207709746468484</v>
       </c>
       <c r="N50" t="n">
         <v>87</v>
@@ -2979,31 +2979,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2881054297072038</v>
+        <v>0.2881054300756604</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7624833063978829</v>
+        <v>0.7624833067381819</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.2258296322815454</v>
+        <v>-0.2258296322941646</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0382073360443087</v>
+        <v>0.03820733583785341</v>
       </c>
       <c r="I51" t="n">
-        <v>32.67867246439744</v>
+        <v>32.67867246667636</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5525603005092494</v>
+        <v>0.5525603006748447</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4893097430635732</v>
+        <v>0.4893097434070218</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7380697191700876</v>
+        <v>0.7380697195217538</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1913997967073373</v>
+        <v>0.1913997967070521</v>
       </c>
       <c r="N51" t="n">
         <v>87</v>
@@ -3029,31 +3029,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2765672708291191</v>
+        <v>0.2765672703397816</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7537858265372366</v>
+        <v>0.753785826095961</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.2117401662205793</v>
+        <v>-0.2117401658145468</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02689552576606502</v>
+        <v>0.02689552583910881</v>
       </c>
       <c r="I52" t="n">
-        <v>32.65211431273097</v>
+        <v>32.65211431500972</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5319497953316987</v>
+        <v>0.531949795289457</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4855707658187028</v>
+        <v>0.4855707651800319</v>
       </c>
       <c r="L52" t="n">
-        <v>0.7202427044900891</v>
+        <v>0.7202427040283136</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2223589865898125</v>
+        <v>0.2223589865896302</v>
       </c>
       <c r="N52" t="n">
         <v>87</v>
@@ -3079,31 +3079,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2400001003598686</v>
+        <v>0.2400001002958555</v>
       </c>
       <c r="F53" t="n">
-        <v>0.763576123014605</v>
+        <v>0.7635761229541848</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.2849733765909832</v>
+        <v>-0.2849733761827338</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0873106256117353</v>
+        <v>0.08731062575918713</v>
       </c>
       <c r="I53" t="n">
-        <v>37.73634008601906</v>
+        <v>37.73634239066045</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5473537760720193</v>
+        <v>0.5473537759993499</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4562981590657523</v>
+        <v>0.4562981592147196</v>
       </c>
       <c r="L53" t="n">
-        <v>0.712603793244951</v>
+        <v>0.7126037932845207</v>
       </c>
       <c r="M53" t="n">
-        <v>0.274306998618185</v>
+        <v>0.2743069983471375</v>
       </c>
       <c r="N53" t="n">
         <v>87</v>
@@ -3129,31 +3129,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2632057573078044</v>
+        <v>0.263205757379455</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7586900915271938</v>
+        <v>0.7586900916540007</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2608016074947841</v>
+        <v>-0.2608016077812749</v>
       </c>
       <c r="H54" t="n">
-        <v>0.06526251471763089</v>
+        <v>0.06526251430835828</v>
       </c>
       <c r="I54" t="n">
-        <v>37.62943425605459</v>
+        <v>37.62943656066446</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5232388857871699</v>
+        <v>0.5232388858499553</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4640685384070324</v>
+        <v>0.4640685389109311</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6993844006975265</v>
+        <v>0.6993844010788551</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2940614137259148</v>
+        <v>0.2940614131461785</v>
       </c>
       <c r="N54" t="n">
         <v>87</v>
@@ -3179,31 +3179,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2458199071283902</v>
+        <v>0.2458199077326268</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7443953201055985</v>
+        <v>0.7443953207233065</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2767599299286871</v>
+        <v>-0.2767599298138634</v>
       </c>
       <c r="H55" t="n">
-        <v>0.05994941607121973</v>
+        <v>0.05994941563386647</v>
       </c>
       <c r="I55" t="n">
-        <v>37.71349578078517</v>
+        <v>37.71349808549353</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5186876477855861</v>
+        <v>0.5186876479978186</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4652515862715963</v>
+        <v>0.4652515871891652</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6967753687477628</v>
+        <v>0.6967753695184313</v>
       </c>
       <c r="M55" t="n">
-        <v>0.2619703763817063</v>
+        <v>0.2619703760870792</v>
       </c>
       <c r="N55" t="n">
         <v>87</v>
@@ -3229,31 +3229,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2673641027885239</v>
+        <v>0.2673641026857079</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7613376054910203</v>
+        <v>0.7613376053936883</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2020207491321457</v>
+        <v>-0.202020749290682</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2115215080528969</v>
+        <v>0.2115215086350872</v>
       </c>
       <c r="I56" t="n">
-        <v>42.48015350268164</v>
+        <v>42.48015351914512</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5128230423018446</v>
+        <v>0.5128230420608547</v>
       </c>
       <c r="K56" t="n">
-        <v>0.476481072290904</v>
+        <v>0.4764810723937331</v>
       </c>
       <c r="L56" t="n">
-        <v>0.7000154890909266</v>
+        <v>0.7000154889843732</v>
       </c>
       <c r="M56" t="n">
-        <v>0.2993547470270124</v>
+        <v>0.2993547470286372</v>
       </c>
       <c r="N56" t="n">
         <v>87</v>
@@ -3279,31 +3279,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3024767605089635</v>
+        <v>0.3024767608318449</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7689853101143301</v>
+        <v>0.7689853104294018</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2103370617111864</v>
+        <v>-0.2103370616898701</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1805919742464539</v>
+        <v>0.180591973976675</v>
       </c>
       <c r="I57" t="n">
-        <v>42.48758651416201</v>
+        <v>42.48758653062681</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5418524377338489</v>
+        <v>0.5418524378863795</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4695722239932199</v>
+        <v>0.4695722243333015</v>
       </c>
       <c r="L57" t="n">
-        <v>0.7170091616039876</v>
+        <v>0.7170091619419777</v>
       </c>
       <c r="M57" t="n">
-        <v>0.2779141402439736</v>
+        <v>0.2779141402438754</v>
       </c>
       <c r="N57" t="n">
         <v>87</v>
@@ -3329,31 +3329,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2764461927910994</v>
+        <v>0.2764461927737832</v>
       </c>
       <c r="F58" t="n">
-        <v>0.787635608898228</v>
+        <v>0.7876356087646613</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2032649747962978</v>
+        <v>-0.2032649745222557</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2058238923899012</v>
+        <v>0.2058238927016305</v>
       </c>
       <c r="I58" t="n">
-        <v>42.34938119771078</v>
+        <v>42.34938121417463</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5309115365538815</v>
+        <v>0.5309115369120692</v>
       </c>
       <c r="K58" t="n">
-        <v>0.470107966905202</v>
+        <v>0.4701079662803514</v>
       </c>
       <c r="L58" t="n">
-        <v>0.7091322586046598</v>
+        <v>0.7091322584585921</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3427846148979303</v>
+        <v>0.3427846148932218</v>
       </c>
       <c r="N58" t="n">
         <v>87</v>
@@ -3379,31 +3379,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3442576933516716</v>
+        <v>0.3442576941241146</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8594857302441523</v>
+        <v>0.8594857303970113</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2871722243581303</v>
+        <v>-0.2871722195803841</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1389331331806147</v>
+        <v>0.1389331394510691</v>
       </c>
       <c r="I59" t="n">
-        <v>47.49499773121499</v>
+        <v>47.49498183666323</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5358825437195094</v>
+        <v>0.5358825436859485</v>
       </c>
       <c r="K59" t="n">
-        <v>0.4493418881355264</v>
+        <v>0.4493418880351688</v>
       </c>
       <c r="L59" t="n">
-        <v>0.699341285136586</v>
+        <v>0.6993412850463876</v>
       </c>
       <c r="M59" t="n">
-        <v>0.4996373558860663</v>
+        <v>0.4996373562752668</v>
       </c>
       <c r="N59" t="n">
         <v>86</v>
@@ -3429,31 +3429,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3327185914234823</v>
+        <v>0.3327185906478537</v>
       </c>
       <c r="F60" t="n">
-        <v>0.830979647830799</v>
+        <v>0.8309796470379688</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3039975215498885</v>
+        <v>-0.3039975225918852</v>
       </c>
       <c r="H60" t="n">
-        <v>0.09982162290287988</v>
+        <v>0.09982162192301303</v>
       </c>
       <c r="I60" t="n">
-        <v>47.79403956602448</v>
+        <v>47.79402366984176</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5115779595346048</v>
+        <v>0.5115779593462362</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5036109393984646</v>
+        <v>0.5036109396564535</v>
       </c>
       <c r="L60" t="n">
-        <v>0.7178690597618717</v>
+        <v>0.7178690598086223</v>
       </c>
       <c r="M60" t="n">
-        <v>0.4185584644295206</v>
+        <v>0.4185584627752708</v>
       </c>
       <c r="N60" t="n">
         <v>87</v>
@@ -3479,31 +3479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3132629611415175</v>
+        <v>0.3132629591828909</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8177545753502355</v>
+        <v>0.8177545743760841</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2649618596989853</v>
+        <v>-0.2649618643459917</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09168652720347836</v>
+        <v>0.09168652278981426</v>
       </c>
       <c r="I61" t="n">
-        <v>47.92309029207442</v>
+        <v>47.92307439699091</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5071405219919038</v>
+        <v>0.5071405222017843</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4638694031513799</v>
+        <v>0.4638694032672505</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6872891183674001</v>
+        <v>0.6872891186004718</v>
       </c>
       <c r="M61" t="n">
-        <v>0.4431209916941796</v>
+        <v>0.4431209895348787</v>
       </c>
       <c r="N61" t="n">
         <v>87</v>
@@ -3529,31 +3529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4135299955611665</v>
+        <v>0.4135299955032827</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9893457052494056</v>
+        <v>0.9893457051876183</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3221880048079129</v>
+        <v>-0.3221880048861863</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2395575883366519</v>
+        <v>0.2395575887290988</v>
       </c>
       <c r="I62" t="n">
-        <v>53.06154693581423</v>
+        <v>53.06154610881001</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5191738311222218</v>
+        <v>0.5191738309636658</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5181617807089823</v>
+        <v>0.5181617809959962</v>
       </c>
       <c r="L62" t="n">
-        <v>0.7335073945841507</v>
+        <v>0.7335073946746764</v>
       </c>
       <c r="M62" t="n">
-        <v>0.6639064893385302</v>
+        <v>0.6639064891464289</v>
       </c>
       <c r="N62" t="n">
         <v>87</v>
@@ -3579,31 +3579,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4224107793018424</v>
+        <v>0.4224107794193844</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9963395031710741</v>
+        <v>0.9963395033795743</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3008536843905745</v>
+        <v>-0.3008536846522816</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1763072528699468</v>
+        <v>0.1763072528581233</v>
       </c>
       <c r="I63" t="n">
-        <v>53.2435903373719</v>
+        <v>53.24358951031568</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5677940504489214</v>
+        <v>0.5677940506675352</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5185616248923104</v>
+        <v>0.5185616250807913</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7689578938642515</v>
+        <v>0.7689578941527804</v>
       </c>
       <c r="M63" t="n">
-        <v>0.6335583343647252</v>
+        <v>0.6335583343424518</v>
       </c>
       <c r="N63" t="n">
         <v>87</v>
@@ -3629,31 +3629,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4167767345697317</v>
+        <v>0.4167767348220163</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9942035116879796</v>
+        <v>0.9942035119092988</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3102229165191375</v>
+        <v>-0.310222916317116</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1756573968508519</v>
+        <v>0.1756573963144206</v>
       </c>
       <c r="I64" t="n">
-        <v>53.51067456315126</v>
+        <v>53.51067373607803</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5400606142146909</v>
+        <v>0.540060614299711</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5375657545758391</v>
+        <v>0.5375657545223316</v>
       </c>
       <c r="L64" t="n">
-        <v>0.7619989550640082</v>
+        <v>0.7619989550865178</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6385908041414775</v>
+        <v>0.6385908044592219</v>
       </c>
       <c r="N64" t="n">
         <v>87</v>

--- a/publication/analyses/outputs/rigid_transformations/df_icp_idpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/df_icp_idpt.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3645290551916942</v>
+        <v>0.3645290550028266</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9922315603859378</v>
+        <v>0.9922315603444273</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3989908995869769</v>
+        <v>-0.3989908997889415</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6917035518058015</v>
+        <v>-0.6917035519541059</v>
       </c>
       <c r="I2" t="n">
-        <v>-48.0207840007515</v>
+        <v>-48.02078400449734</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5330771856634484</v>
+        <v>0.5330771857754911</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5219253827476487</v>
+        <v>0.5219253825531919</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7460411456690188</v>
+        <v>0.7460411456130374</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6541758772644581</v>
+        <v>0.6541758772654086</v>
       </c>
       <c r="N2" t="n">
         <v>87</v>
@@ -579,31 +579,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3845270665183238</v>
+        <v>0.3845270663257179</v>
       </c>
       <c r="F3" t="n">
-        <v>1.027036172664577</v>
+        <v>1.027036172447971</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4691201825488633</v>
+        <v>-0.4691201825407347</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6318614976479466</v>
+        <v>-0.6318614974641719</v>
       </c>
       <c r="I3" t="n">
-        <v>-47.87204207976546</v>
+        <v>-47.8720420835115</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5829538268668057</v>
+        <v>0.5829538264930001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.52646202712588</v>
+        <v>0.5264620271168781</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7854918397183668</v>
+        <v>0.7854918394349131</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6616690031256521</v>
+        <v>0.6616690031259719</v>
       </c>
       <c r="N3" t="n">
         <v>87</v>
@@ -629,31 +629,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3592427313120909</v>
+        <v>0.359242731303359</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9756437532052584</v>
+        <v>0.9756437532649495</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5274935586879224</v>
+        <v>-0.5274935580558804</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6141091870746891</v>
+        <v>-0.6141091876024802</v>
       </c>
       <c r="I4" t="n">
-        <v>-47.53008432436314</v>
+        <v>-47.53008432811028</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5560243933662501</v>
+        <v>0.5560243938957831</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5193163569403313</v>
+        <v>0.5193163564847439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7608236356765504</v>
+        <v>0.7608236357525723</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6107602873176727</v>
+        <v>0.6107602873183552</v>
       </c>
       <c r="N4" t="n">
         <v>87</v>
@@ -679,31 +679,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3895421956629035</v>
+        <v>0.3895421958267923</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9187490842926317</v>
+        <v>0.9187490844405588</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3330259640172244</v>
+        <v>-0.333025963644161</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.6902268687020978</v>
+        <v>-0.6902268685770423</v>
       </c>
       <c r="I5" t="n">
-        <v>-42.92773912476871</v>
+        <v>-42.92773874262458</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5375474859426322</v>
+        <v>0.5375474860933646</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4892252021404271</v>
+        <v>0.4892252022543253</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7268415219651296</v>
+        <v>0.7268415221532694</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5619619932307656</v>
+        <v>0.5619619932293404</v>
       </c>
       <c r="N5" t="n">
         <v>87</v>
@@ -729,31 +729,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3446446581341946</v>
+        <v>0.3446446585728286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8550490665126353</v>
+        <v>0.8550490668126561</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3136952957990502</v>
+        <v>-0.313695295792968</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6829373368781262</v>
+        <v>-0.6829373372543159</v>
       </c>
       <c r="I6" t="n">
-        <v>-43.06846417061262</v>
+        <v>-43.0684637884892</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5464996789942094</v>
+        <v>0.546499678757042</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4975761756306532</v>
+        <v>0.49757617646701</v>
       </c>
       <c r="L6" t="n">
-        <v>0.739083181851678</v>
+        <v>0.7390831822393736</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4299592497529777</v>
+        <v>0.4299592496831679</v>
       </c>
       <c r="N6" t="n">
         <v>86</v>
@@ -779,31 +779,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3396046682517532</v>
+        <v>0.3396046677850502</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8692186317187375</v>
+        <v>0.8692186313855494</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2789081150417019</v>
+        <v>-0.2789081151539108</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6769631864689813</v>
+        <v>-0.6769631863793393</v>
       </c>
       <c r="I7" t="n">
-        <v>-43.44247311632434</v>
+        <v>-43.44247273423316</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5391859555915083</v>
+        <v>0.5391859556344799</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4880799404961969</v>
+        <v>0.4880799398502753</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7272850356097662</v>
+        <v>0.7272850352081471</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4760225905406929</v>
+        <v>0.4760225905459282</v>
       </c>
       <c r="N7" t="n">
         <v>86</v>
@@ -829,31 +829,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.330800010773889</v>
+        <v>0.3308000121800106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8606213617319497</v>
+        <v>0.8606213625404842</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2301859649850826</v>
+        <v>-0.230185965217629</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6123056865393437</v>
+        <v>-0.6123056868567005</v>
       </c>
       <c r="I8" t="n">
-        <v>-37.8106574841167</v>
+        <v>-37.81065702800154</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5440857699063842</v>
+        <v>0.5440857701207754</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5032750803401369</v>
+        <v>0.5032750815094718</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7411579666346398</v>
+        <v>0.7411579675860489</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4374402779390152</v>
+        <v>0.4374402779177202</v>
       </c>
       <c r="N8" t="n">
         <v>87</v>
@@ -879,31 +879,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3435551109163796</v>
+        <v>0.3435551113891929</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8648108465375288</v>
+        <v>0.8648108468017685</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2060248940942415</v>
+        <v>-0.2060248937820575</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6723041411401027</v>
+        <v>-0.6723041412546991</v>
       </c>
       <c r="I9" t="n">
-        <v>-37.6485617184089</v>
+        <v>-37.64856126226992</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5327475326593397</v>
+        <v>0.5327475328988452</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4988840658785275</v>
+        <v>0.4988840661062979</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7298665937978703</v>
+        <v>0.7298665941283785</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4638885162912132</v>
+        <v>0.4638885162638046</v>
       </c>
       <c r="N9" t="n">
         <v>87</v>
@@ -929,31 +929,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3577778587679972</v>
+        <v>0.3577778603950453</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8548596985850181</v>
+        <v>0.8548596996655161</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2626605321650004</v>
+        <v>-0.2626605320466524</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6356140861956305</v>
+        <v>-0.635614086152259</v>
       </c>
       <c r="I10" t="n">
-        <v>-37.59587853488313</v>
+        <v>-37.59587807871777</v>
       </c>
       <c r="J10" t="n">
-        <v>0.525735023208485</v>
+        <v>0.5257350245553079</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4971996591498524</v>
+        <v>0.4971996595744856</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7236054281766794</v>
+        <v>0.7236054294469841</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4551706148008062</v>
+        <v>0.4551706148106021</v>
       </c>
       <c r="N10" t="n">
         <v>87</v>
@@ -979,31 +979,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3144301803785092</v>
+        <v>0.3144301796853223</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7978803696816794</v>
+        <v>0.797880369330199</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1794723523681796</v>
+        <v>-0.1794723526056146</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5788370291915612</v>
+        <v>-0.5788370291142542</v>
       </c>
       <c r="I11" t="n">
-        <v>-33.04556133510502</v>
+        <v>-33.04555818517584</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5584121147316223</v>
+        <v>0.5584121148063227</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5027929538148729</v>
+        <v>0.5027929529102312</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7514152276104921</v>
+        <v>0.7514152270606843</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2683062430105446</v>
+        <v>0.2683062435051539</v>
       </c>
       <c r="N11" t="n">
         <v>87</v>
@@ -1029,31 +1029,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.307645171960897</v>
+        <v>0.3076451722827764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7883851849473605</v>
+        <v>0.788385185312414</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1959385361989803</v>
+        <v>-0.1959385352004119</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5798639417812979</v>
+        <v>-0.5798639418281368</v>
       </c>
       <c r="I12" t="n">
-        <v>-32.97022289058798</v>
+        <v>-32.97021974054208</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5383648385178035</v>
+        <v>0.5383648387861</v>
       </c>
       <c r="K12" t="n">
-        <v>0.500501818382485</v>
+        <v>0.5005018182932686</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7350773901817921</v>
+        <v>0.7350773903175443</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2849779470204979</v>
+        <v>0.2849779476802339</v>
       </c>
       <c r="N12" t="n">
         <v>87</v>
@@ -1079,31 +1079,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3181889089222515</v>
+        <v>0.3181889094097058</v>
       </c>
       <c r="F13" t="n">
-        <v>0.79076167287039</v>
+        <v>0.790761673281876</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.189976887711282</v>
+        <v>-0.1899768871737137</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5764455889702162</v>
+        <v>-0.5764455897394782</v>
       </c>
       <c r="I13" t="n">
-        <v>-32.93627377713958</v>
+        <v>-32.93627062715507</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5375336345855269</v>
+        <v>0.5375336346295749</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4987741406134392</v>
+        <v>0.4987741412794527</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7332926098464387</v>
+        <v>0.7332926103317398</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2959492720474515</v>
+        <v>0.2959492719444076</v>
       </c>
       <c r="N13" t="n">
         <v>87</v>
@@ -1129,31 +1129,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2876329645427559</v>
+        <v>0.2876329641209416</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7724754550204788</v>
+        <v>0.7724754546913665</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05434043963856539</v>
+        <v>-0.05434044019875728</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5457663677091773</v>
+        <v>-0.5457663699644399</v>
       </c>
       <c r="I14" t="n">
-        <v>-28.48700948959615</v>
+        <v>-28.48699987621819</v>
       </c>
       <c r="J14" t="n">
-        <v>0.541103065756489</v>
+        <v>0.5411030656215097</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4991671873882419</v>
+        <v>0.4991671873723429</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7361796035860811</v>
+        <v>0.7361796034760889</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2340041022566285</v>
+        <v>0.2340041015162577</v>
       </c>
       <c r="N14" t="n">
         <v>87</v>
@@ -1179,31 +1179,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2800018216810595</v>
+        <v>0.2800018217525374</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7642411308457521</v>
+        <v>0.7642411307430049</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04541011166941189</v>
+        <v>-0.04541011170283582</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5654393909268833</v>
+        <v>-0.5654393902154879</v>
       </c>
       <c r="I15" t="n">
-        <v>-28.39016044200871</v>
+        <v>-28.39015082848975</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5347301024417068</v>
+        <v>0.5347301025999547</v>
       </c>
       <c r="K15" t="n">
-        <v>0.499240298584689</v>
+        <v>0.499240298771838</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7315580347369904</v>
+        <v>0.7315580349803781</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2211048346104875</v>
+        <v>0.2211048334501144</v>
       </c>
       <c r="N15" t="n">
         <v>87</v>
@@ -1229,31 +1229,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2827527697599725</v>
+        <v>0.2827527695112421</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7784102795944295</v>
+        <v>0.7784102793324076</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.05186802403846968</v>
+        <v>-0.05186802285635395</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5461198970844521</v>
+        <v>-0.5461198967585119</v>
       </c>
       <c r="I16" t="n">
-        <v>-28.3523306358123</v>
+        <v>-28.35232102247786</v>
       </c>
       <c r="J16" t="n">
-        <v>0.541353691899363</v>
+        <v>0.5413536920020404</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4990331302789138</v>
+        <v>0.4990331303582724</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7362729689789254</v>
+        <v>0.7362729691082083</v>
       </c>
       <c r="M16" t="n">
-        <v>0.252635465699556</v>
+        <v>0.2526354645154166</v>
       </c>
       <c r="N16" t="n">
         <v>87</v>
@@ -1279,31 +1279,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3009660986265882</v>
+        <v>0.3009660986981283</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7817265035686972</v>
+        <v>0.7817265037100352</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02858337557529467</v>
+        <v>-0.02858337544290634</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.3726299522514864</v>
+        <v>-0.3726299525554282</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.91398097383421</v>
+        <v>-22.9139810805633</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5366267689307129</v>
+        <v>0.5366267690193717</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4973145824243886</v>
+        <v>0.4973145825537182</v>
       </c>
       <c r="L17" t="n">
-        <v>0.731635211717534</v>
+        <v>0.7316352118704711</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2753293361717059</v>
+        <v>0.2753293361666492</v>
       </c>
       <c r="N17" t="n">
         <v>87</v>
@@ -1329,31 +1329,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2905846187521479</v>
+        <v>0.29058461854332</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7667923863273766</v>
+        <v>0.766792386236988</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01634430779188278</v>
+        <v>-0.01634430791813202</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.404502827237593</v>
+        <v>-0.4045028266382928</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.81757623333023</v>
+        <v>-22.81757634006014</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5357990410744516</v>
+        <v>0.5357990407597586</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4896117068449335</v>
+        <v>0.489611707049214</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7258100549702455</v>
+        <v>0.7258100548757386</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2473263589545511</v>
+        <v>0.2473263589516829</v>
       </c>
       <c r="N18" t="n">
         <v>87</v>
@@ -1379,31 +1379,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2937567515668686</v>
+        <v>0.2937567513501241</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7731756085905394</v>
+        <v>0.7731756086023298</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.04430604664349858</v>
+        <v>-0.04430604671006222</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3975636862906526</v>
+        <v>-0.397563686111539</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.87170433581334</v>
+        <v>-22.87170444255005</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5359234969343449</v>
+        <v>0.5359234968471082</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4920848795614441</v>
+        <v>0.4920848796754265</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7275723491580323</v>
+        <v>0.7275723491708652</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2616084831575632</v>
+        <v>0.2616084831567424</v>
       </c>
       <c r="N19" t="n">
         <v>87</v>
@@ -1429,31 +1429,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2633677823384019</v>
+        <v>0.2633677822797215</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7222828471858486</v>
+        <v>0.7222828471091147</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05662861202040403</v>
+        <v>0.0566286122210613</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2140278944133911</v>
+        <v>-0.2140278944605711</v>
       </c>
       <c r="I20" t="n">
-        <v>-18.35113269096535</v>
+        <v>-18.35113269530288</v>
       </c>
       <c r="J20" t="n">
-        <v>0.488790789975428</v>
+        <v>0.488790789878649</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4520907394910254</v>
+        <v>0.4520907394726703</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6658096372825683</v>
+        <v>0.6658096371990566</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2799822105786849</v>
+        <v>0.2799822105793842</v>
       </c>
       <c r="N20" t="n">
         <v>82</v>
@@ -1479,31 +1479,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2683866849991582</v>
+        <v>0.2683866850753867</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7444665910112278</v>
+        <v>0.7444665910761912</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02718648590956718</v>
+        <v>0.02718648578661487</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.2587873572128387</v>
+        <v>-0.2587873568715509</v>
       </c>
       <c r="I21" t="n">
-        <v>-18.18446853595456</v>
+        <v>-18.18446854029293</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4969368230060908</v>
+        <v>0.4969368228867881</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4728705516265186</v>
+        <v>0.4728705518542571</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6859684866340107</v>
+        <v>0.685968486704575</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2892710501880598</v>
+        <v>0.2892710501879905</v>
       </c>
       <c r="N21" t="n">
         <v>84</v>
@@ -1529,31 +1529,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2538810311082668</v>
+        <v>0.2538810310616593</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7478614843001423</v>
+        <v>0.7478614842345598</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03105973562873032</v>
+        <v>0.03105973581619992</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2606093011310122</v>
+        <v>-0.2606093010762152</v>
       </c>
       <c r="I22" t="n">
-        <v>-18.08951969728886</v>
+        <v>-18.08951970162714</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5072912132708114</v>
+        <v>0.5072912131739403</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4738633525049458</v>
+        <v>0.4738633525054254</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6941835866029954</v>
+        <v>0.694183586532532</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2782192441054702</v>
+        <v>0.2782192441049245</v>
       </c>
       <c r="N22" t="n">
         <v>84</v>
@@ -1579,31 +1579,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2672979938042512</v>
+        <v>0.2672979939185947</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7496487585453822</v>
+        <v>0.7496487585512781</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004712900545257526</v>
+        <v>-0.004712900470622117</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2398405608051348</v>
+        <v>-0.2398405608819871</v>
       </c>
       <c r="I23" t="n">
-        <v>-13.51300864749045</v>
+        <v>-13.51300857760571</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5071436785634139</v>
+        <v>0.5071436785275391</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4341613569876261</v>
+        <v>0.4341613570448412</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6676007748708567</v>
+        <v>0.667600774880813</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3410021504044818</v>
+        <v>0.3410021503979113</v>
       </c>
       <c r="N23" t="n">
         <v>64</v>
@@ -1629,31 +1629,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2636116138008838</v>
+        <v>0.2636116137836897</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7571277150310417</v>
+        <v>0.7571277150120513</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.009685282860118605</v>
+        <v>-0.009685282857503807</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.2269686001101832</v>
+        <v>-0.2269686002816229</v>
       </c>
       <c r="I24" t="n">
-        <v>-13.55610429236606</v>
+        <v>-13.55610422248241</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5067833279357139</v>
+        <v>0.5067833278818831</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4431779539375422</v>
+        <v>0.4431779539764363</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6732280745259095</v>
+        <v>0.6732280745109911</v>
       </c>
       <c r="M24" t="n">
-        <v>0.346419307398228</v>
+        <v>0.3464193073857009</v>
       </c>
       <c r="N24" t="n">
         <v>66</v>
@@ -1679,31 +1679,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.263482704030702</v>
+        <v>0.2634827040096388</v>
       </c>
       <c r="F25" t="n">
-        <v>0.742363044708545</v>
+        <v>0.7423630448177682</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0440611286605872</v>
+        <v>0.044061128706403</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.2544176420543067</v>
+        <v>-0.2544176421220072</v>
       </c>
       <c r="I25" t="n">
-        <v>-13.49438516966302</v>
+        <v>-13.49438509978311</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4953401197194118</v>
+        <v>0.4953401197006159</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4543861158486869</v>
+        <v>0.454386116054414</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6721819519145822</v>
+        <v>0.6721819520397998</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3150782659423896</v>
+        <v>0.3150782659325533</v>
       </c>
       <c r="N25" t="n">
         <v>68</v>
@@ -1729,31 +1729,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2014837727476008</v>
+        <v>0.2014837725354573</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6538306488338487</v>
+        <v>0.6538306487292136</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07067009103377586</v>
+        <v>0.07067009094203058</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1388721030476177</v>
+        <v>-0.1388721032657827</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.375662322571992</v>
+        <v>-8.375663399822677</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4811016688037022</v>
+        <v>0.481101668801188</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3886598199018724</v>
+        <v>0.3886598198404677</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6184781898594833</v>
+        <v>0.6184781898189401</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2120831111206858</v>
+        <v>0.2120831109163549</v>
       </c>
       <c r="N26" t="n">
         <v>51</v>
@@ -1779,31 +1779,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2024237810348795</v>
+        <v>0.2024237809263168</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6563686926098568</v>
+        <v>0.6563686925405205</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06361532286854299</v>
+        <v>0.0636153229202705</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1441605711841589</v>
+        <v>-0.1441605712291789</v>
       </c>
       <c r="I27" t="n">
-        <v>-8.481481258891522</v>
+        <v>-8.481482336167668</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4764877870103236</v>
+        <v>0.4764877870333397</v>
       </c>
       <c r="K27" t="n">
-        <v>0.392813431265388</v>
+        <v>0.3928134312307149</v>
       </c>
       <c r="L27" t="n">
-        <v>0.617529758758623</v>
+        <v>0.6175297587543267</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2224339400493142</v>
+        <v>0.2224339398566691</v>
       </c>
       <c r="N27" t="n">
         <v>52</v>
@@ -1829,31 +1829,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2058324790049984</v>
+        <v>0.2058324789893669</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6534967409714533</v>
+        <v>0.6534967410011151</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07495102105173146</v>
+        <v>0.07495102076620697</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.1333621251779391</v>
+        <v>-0.1333621249324892</v>
       </c>
       <c r="I28" t="n">
-        <v>-8.357455243886204</v>
+        <v>-8.357456321116501</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4810158447930951</v>
+        <v>0.4810158448527626</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3828196617264764</v>
+        <v>0.3828196618249308</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6147577867309927</v>
+        <v>0.6147577868389885</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2216548084611198</v>
+        <v>0.2216548082489599</v>
       </c>
       <c r="N28" t="n">
         <v>50</v>
@@ -1879,31 +1879,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2375123142751702</v>
+        <v>0.2375123142440471</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6339775049114402</v>
+        <v>0.6339775049798813</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04269381337371669</v>
+        <v>-0.04269381345363854</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.03618395104450656</v>
+        <v>-0.03618395096555105</v>
       </c>
       <c r="I29" t="n">
-        <v>-4.144255823405403</v>
+        <v>-4.144255819280955</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4457970018617271</v>
+        <v>0.4457970019144279</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3287638997564361</v>
+        <v>0.3287638998157907</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5539139541950218</v>
+        <v>0.5539139542726648</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3083939170635239</v>
+        <v>0.3083939170647234</v>
       </c>
       <c r="N29" t="n">
         <v>29</v>
@@ -1929,31 +1929,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2395278129128498</v>
+        <v>0.2395278129333947</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6431484467896131</v>
+        <v>0.6431484467888116</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02610055567504332</v>
+        <v>-0.02610055571426528</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.06688062171377851</v>
+        <v>-0.06688062169041586</v>
       </c>
       <c r="I30" t="n">
-        <v>-4.176998281263238</v>
+        <v>-4.176998277138352</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4439748912539537</v>
+        <v>0.4439748912387679</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3264290917806024</v>
+        <v>0.326429091798552</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5510622977710133</v>
+        <v>0.5510622977694112</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3316176542091548</v>
+        <v>0.3316176542103106</v>
       </c>
       <c r="N30" t="n">
         <v>29</v>
@@ -1979,31 +1979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2452538304569996</v>
+        <v>0.245253830483261</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6453197455740344</v>
+        <v>0.6453197455752607</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0369381943584699</v>
+        <v>-0.03693819437899037</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.07030743681661988</v>
+        <v>-0.07030743687664653</v>
       </c>
       <c r="I31" t="n">
-        <v>-4.166379001981874</v>
+        <v>-4.166378997856386</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4453796215599146</v>
+        <v>0.4453796215890121</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3268739905707011</v>
+        <v>0.3268739905321689</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5524577929692616</v>
+        <v>0.552457792969921</v>
       </c>
       <c r="M31" t="n">
-        <v>0.333508562131869</v>
+        <v>0.3335085621331663</v>
       </c>
       <c r="N31" t="n">
         <v>29</v>
@@ -2029,31 +2029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8569264275448086</v>
+        <v>0.8569264275072834</v>
       </c>
       <c r="F32" t="n">
-        <v>1.386382284858872</v>
+        <v>1.386382284844619</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02304995057778569</v>
+        <v>0.0230499505060493</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.001683385397370785</v>
+        <v>-0.001683385304033891</v>
       </c>
       <c r="I32" t="n">
-        <v>2.814002915874982</v>
+        <v>2.814002831477266</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4975912544453465</v>
+        <v>0.4975912544695542</v>
       </c>
       <c r="K32" t="n">
-        <v>0.437012709474613</v>
+        <v>0.4370127093850621</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6622515871954072</v>
+        <v>0.6622515871545023</v>
       </c>
       <c r="M32" t="n">
-        <v>1.217981393547401</v>
+        <v>1.217981393553406</v>
       </c>
       <c r="N32" t="n">
         <v>87</v>
@@ -2079,31 +2079,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8523752223515813</v>
+        <v>0.852375222337458</v>
       </c>
       <c r="F33" t="n">
-        <v>1.382146310460525</v>
+        <v>1.382146310459088</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0007145208275005643</v>
+        <v>-0.0007145208444399032</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01224362245238808</v>
+        <v>0.01224362246802002</v>
       </c>
       <c r="I33" t="n">
-        <v>2.798332002953735</v>
+        <v>2.798331918553608</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4969077474716308</v>
+        <v>0.4969077474740478</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4371124860016866</v>
+        <v>0.437112485981552</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6618040759287486</v>
+        <v>0.6618040759172645</v>
       </c>
       <c r="M33" t="n">
-        <v>1.213401742459493</v>
+        <v>1.213401742464114</v>
       </c>
       <c r="N33" t="n">
         <v>87</v>
@@ -2129,31 +2129,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8522707386623779</v>
+        <v>0.8522707386910811</v>
       </c>
       <c r="F34" t="n">
-        <v>1.400258903939648</v>
+        <v>1.40025890402078</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03189067958669511</v>
+        <v>0.03189067954406255</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.01239464813176028</v>
+        <v>-0.01239464821333058</v>
       </c>
       <c r="I34" t="n">
-        <v>2.764994808039082</v>
+        <v>2.764994723641203</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4977535947082024</v>
+        <v>0.4977535947608415</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4386931958597427</v>
+        <v>0.4386931960483624</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6634835047976489</v>
+        <v>0.6634835049618542</v>
       </c>
       <c r="M34" t="n">
-        <v>1.233091495763264</v>
+        <v>1.233091495767047</v>
       </c>
       <c r="N34" t="n">
         <v>86</v>
@@ -2179,31 +2179,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2441604758980471</v>
+        <v>0.2441604760006945</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6872206680707552</v>
+        <v>0.6872206681521781</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.006964444250513679</v>
+        <v>-0.006964444184916374</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0004113350661327786</v>
+        <v>-0.0004113350759098466</v>
       </c>
       <c r="I35" t="n">
-        <v>6.868175012818056</v>
+        <v>6.868173992575502</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4961455307269917</v>
+        <v>0.4961455307315018</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4464697797633504</v>
+        <v>0.4464697798423728</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6674546066230294</v>
+        <v>0.6674546066792411</v>
       </c>
       <c r="M35" t="n">
-        <v>0.163635554575783</v>
+        <v>0.1636355546883802</v>
       </c>
       <c r="N35" t="n">
         <v>83</v>
@@ -2229,31 +2229,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2433102285826042</v>
+        <v>0.2433102285506094</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6881661041170494</v>
+        <v>0.688166104088088</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01932631636321958</v>
+        <v>-0.01932631641108173</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.02961871206446176</v>
+        <v>-0.02961871206531441</v>
       </c>
       <c r="I36" t="n">
-        <v>6.895447151999194</v>
+        <v>6.895446131679874</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4923278495756096</v>
+        <v>0.4923278495274819</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4467858395548872</v>
+        <v>0.4467858395269058</v>
       </c>
       <c r="L36" t="n">
-        <v>0.6648340378579525</v>
+        <v>0.6648340378035084</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1776746716927513</v>
+        <v>0.1776746717842937</v>
       </c>
       <c r="N36" t="n">
         <v>82</v>
@@ -2279,31 +2279,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2437569258051588</v>
+        <v>0.2437569257975565</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6865832975761783</v>
+        <v>0.6865832976170302</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.004481314871327413</v>
+        <v>-0.004481314882923471</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0162520920068232</v>
+        <v>-0.01625209202285305</v>
       </c>
       <c r="I37" t="n">
-        <v>6.883111320036891</v>
+        <v>6.883110299772819</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4936947525603141</v>
+        <v>0.4936947525907676</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4455460052950447</v>
+        <v>0.4455460052693275</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6650156024785898</v>
+        <v>0.6650156024839678</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1707362672973437</v>
+        <v>0.1707362674406903</v>
       </c>
       <c r="N37" t="n">
         <v>82</v>
@@ -2329,31 +2329,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2657623285918498</v>
+        <v>0.2657623287325191</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7162934930558499</v>
+        <v>0.7162934930945291</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.008892415918182905</v>
+        <v>-0.008892415918694496</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01435344118129933</v>
+        <v>0.01435344118442572</v>
       </c>
       <c r="I38" t="n">
-        <v>12.27546398943139</v>
+        <v>12.27546591621002</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5209605324702873</v>
+        <v>0.5209605323983761</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4743253393091776</v>
+        <v>0.4743253394270173</v>
       </c>
       <c r="L38" t="n">
-        <v>0.7045455300422335</v>
+        <v>0.7045455300683945</v>
       </c>
       <c r="M38" t="n">
-        <v>0.129197385003228</v>
+        <v>0.1291973850749461</v>
       </c>
       <c r="N38" t="n">
         <v>86</v>
@@ -2379,31 +2379,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2624323595161135</v>
+        <v>0.2624323594683187</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7148563955534493</v>
+        <v>0.7148563955761063</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.003833066512811456</v>
+        <v>-0.003833066657989548</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02152874913099367</v>
+        <v>0.021528749338529</v>
       </c>
       <c r="I39" t="n">
-        <v>12.27622260783959</v>
+        <v>12.27622453457428</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5208166754387522</v>
+        <v>0.520816675523964</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4734725520938156</v>
+        <v>0.4734725520234616</v>
       </c>
       <c r="L39" t="n">
-        <v>0.7038652335506461</v>
+        <v>0.7038652335663721</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1248735330739505</v>
+        <v>0.1248735331150706</v>
       </c>
       <c r="N39" t="n">
         <v>86</v>
@@ -2429,31 +2429,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2651111430906931</v>
+        <v>0.2651111430244378</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7181680577783834</v>
+        <v>0.7181680576989563</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.03198338290098945</v>
+        <v>-0.03198338281401902</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04418611198900635</v>
+        <v>0.04418611195364974</v>
       </c>
       <c r="I40" t="n">
-        <v>12.33087495092781</v>
+        <v>12.33087687770432</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5223296081969011</v>
+        <v>0.5223296081583578</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4756915354975251</v>
+        <v>0.475691535429233</v>
       </c>
       <c r="L40" t="n">
-        <v>0.706477640511801</v>
+        <v>0.7064776404373212</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1290531001954471</v>
+        <v>0.1290531001611948</v>
       </c>
       <c r="N40" t="n">
         <v>86</v>
@@ -2479,31 +2479,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2750555754125886</v>
+        <v>0.275055575501474</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7258023137678412</v>
+        <v>0.7258023138634189</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.03546695198286898</v>
+        <v>-0.03546695193455207</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04969193505678504</v>
+        <v>0.04969193499027824</v>
       </c>
       <c r="I41" t="n">
-        <v>17.0019342624288</v>
+        <v>17.00193426503468</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5131039699178365</v>
+        <v>0.5131039699961114</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4981330845968885</v>
+        <v>0.4981330846555484</v>
       </c>
       <c r="L41" t="n">
-        <v>0.715130934805267</v>
+        <v>0.7151309349022891</v>
       </c>
       <c r="M41" t="n">
-        <v>0.12400300300918</v>
+        <v>0.1240030030092144</v>
       </c>
       <c r="N41" t="n">
         <v>87</v>
@@ -2529,31 +2529,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2718463027496654</v>
+        <v>0.271846302770433</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7253876926278267</v>
+        <v>0.7253876926407189</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.06570285879865878</v>
+        <v>-0.06570285892587435</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03378401759817962</v>
+        <v>0.03378401771811923</v>
       </c>
       <c r="I42" t="n">
-        <v>17.01445926124732</v>
+        <v>17.01445926385382</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5133709708528146</v>
+        <v>0.5133709709630444</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4968041963052805</v>
+        <v>0.4968041962101782</v>
       </c>
       <c r="L42" t="n">
-        <v>0.7143977625811108</v>
+        <v>0.7143977625941869</v>
       </c>
       <c r="M42" t="n">
-        <v>0.125790068904683</v>
+        <v>0.1257900689046426</v>
       </c>
       <c r="N42" t="n">
         <v>87</v>
@@ -2579,31 +2579,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2696425885150415</v>
+        <v>0.2696425886293612</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7228873602150035</v>
+        <v>0.7228873602677324</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.04713791612721252</v>
+        <v>-0.04713791623146335</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03991641854582895</v>
+        <v>0.03991641854315731</v>
       </c>
       <c r="I43" t="n">
-        <v>17.00485967896255</v>
+        <v>17.00485968156876</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5104025345029759</v>
+        <v>0.5104025345667386</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4939525793198548</v>
+        <v>0.4939525793311766</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7102815623707255</v>
+        <v>0.7102815624244185</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1344107053579184</v>
+        <v>0.1344107053578429</v>
       </c>
       <c r="N43" t="n">
         <v>87</v>
@@ -2629,31 +2629,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2735368124641692</v>
+        <v>0.2735368122381773</v>
       </c>
       <c r="F44" t="n">
-        <v>0.736678196455878</v>
+        <v>0.7366781963281147</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1129165248037793</v>
+        <v>-0.112916524876141</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0373730243207433</v>
+        <v>0.03737302427822442</v>
       </c>
       <c r="I44" t="n">
-        <v>22.12382426416151</v>
+        <v>22.12382510462689</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5243947169095524</v>
+        <v>0.5243947167148322</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4949137913837923</v>
+        <v>0.4949137914109549</v>
       </c>
       <c r="L44" t="n">
-        <v>0.7210613566296071</v>
+        <v>0.7210613565066396</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1508816924247331</v>
+        <v>0.1508816923886758</v>
       </c>
       <c r="N44" t="n">
         <v>87</v>
@@ -2679,31 +2679,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2720497004143027</v>
+        <v>0.2720497003252312</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7395870392167468</v>
+        <v>0.7395870390924957</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1108488218448542</v>
+        <v>-0.1108488218236516</v>
       </c>
       <c r="H45" t="n">
-        <v>0.007131085905200507</v>
+        <v>0.007131086193339797</v>
       </c>
       <c r="I45" t="n">
-        <v>22.16932951225223</v>
+        <v>22.16933035275825</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5286683437741309</v>
+        <v>0.5286683436966615</v>
       </c>
       <c r="K45" t="n">
-        <v>0.493080145523045</v>
+        <v>0.4930801454354691</v>
       </c>
       <c r="L45" t="n">
-        <v>0.7229234037004956</v>
+        <v>0.7229234035841106</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1561113095182349</v>
+        <v>0.1561113094683832</v>
       </c>
       <c r="N45" t="n">
         <v>87</v>
@@ -2729,31 +2729,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2790236935921945</v>
+        <v>0.279023693556267</v>
       </c>
       <c r="F46" t="n">
-        <v>0.745547027213198</v>
+        <v>0.7455470270695509</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.1003665097347834</v>
+        <v>-0.100366509655089</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02857474887736089</v>
+        <v>0.02857474843511909</v>
       </c>
       <c r="I46" t="n">
-        <v>22.13729651408182</v>
+        <v>22.13729735453764</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5295588478036979</v>
+        <v>0.5295588477570358</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4983461690031857</v>
+        <v>0.498346168835296</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7271736226289646</v>
+        <v>0.727173622479925</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1644958733193197</v>
+        <v>0.1644958733271998</v>
       </c>
       <c r="N46" t="n">
         <v>87</v>
@@ -2779,31 +2779,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2806966435160957</v>
+        <v>0.2806966434361763</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7517627103832827</v>
+        <v>0.7517627103485987</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.1834066017563032</v>
+        <v>-0.1834066019878264</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05361918334205029</v>
+        <v>0.05361918324643966</v>
       </c>
       <c r="I47" t="n">
-        <v>27.83797300504665</v>
+        <v>27.83797300089815</v>
       </c>
       <c r="J47" t="n">
-        <v>0.541591349204672</v>
+        <v>0.5415913490835175</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4890772796675099</v>
+        <v>0.489077279747996</v>
       </c>
       <c r="L47" t="n">
-        <v>0.7297381551079185</v>
+        <v>0.7297381550719436</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1806360919155348</v>
+        <v>0.1806360919164171</v>
       </c>
       <c r="N47" t="n">
         <v>87</v>
@@ -2829,31 +2829,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2881872421300788</v>
+        <v>0.2881872420346217</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7586917764457983</v>
+        <v>0.7586917764385325</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1704607050368168</v>
+        <v>-0.1704607049954348</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0390487143048972</v>
+        <v>0.03904871433115886</v>
       </c>
       <c r="I48" t="n">
-        <v>27.84706146295521</v>
+        <v>27.84706145880764</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5384706664424079</v>
+        <v>0.5384706664425202</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4996794128820748</v>
+        <v>0.4996794128707528</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7345952452045315</v>
+        <v>0.7345952451969125</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1896919538867656</v>
+        <v>0.1896919538872336</v>
       </c>
       <c r="N48" t="n">
         <v>87</v>
@@ -2879,31 +2879,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.278980579323518</v>
+        <v>0.2789805790167013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7513093859428532</v>
+        <v>0.7513093857720531</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.152128325624858</v>
+        <v>-0.1521283257557116</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03778269918518617</v>
+        <v>0.03778269965164327</v>
       </c>
       <c r="I49" t="n">
-        <v>27.85093419289976</v>
+        <v>27.85093418875233</v>
       </c>
       <c r="J49" t="n">
-        <v>0.543523007782255</v>
+        <v>0.5435230072973565</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4863043495038855</v>
+        <v>0.4863043497817698</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7293210406501833</v>
+        <v>0.7293210404741056</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1804345118616107</v>
+        <v>0.1804345118623014</v>
       </c>
       <c r="N49" t="n">
         <v>87</v>
@@ -2929,31 +2929,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2924659080172626</v>
+        <v>0.2924659076205242</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7582287270887855</v>
+        <v>0.758228726973371</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.200922434072254</v>
+        <v>-0.2009224351213561</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03142591623839053</v>
+        <v>0.0314259157134984</v>
       </c>
       <c r="I50" t="n">
-        <v>32.56751102562283</v>
+        <v>32.56751764892272</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5386541850266597</v>
+        <v>0.5386541848517371</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4858216218834074</v>
+        <v>0.4858216214242814</v>
       </c>
       <c r="L50" t="n">
-        <v>0.7253764397443297</v>
+        <v>0.7253764393069347</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2207709746468484</v>
+        <v>0.2207709756875542</v>
       </c>
       <c r="N50" t="n">
         <v>87</v>
@@ -2979,31 +2979,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2881054300756604</v>
+        <v>0.2881054297038992</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7624833067381819</v>
+        <v>0.762483306241295</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.2258296322941646</v>
+        <v>-0.225829631678323</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03820733583785341</v>
+        <v>0.03820733624280592</v>
       </c>
       <c r="I51" t="n">
-        <v>32.67867246667636</v>
+        <v>32.67867909025051</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5525603006748447</v>
+        <v>0.5525603001680846</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4893097434070218</v>
+        <v>0.4893097436956473</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7380697195217538</v>
+        <v>0.7380697193337115</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1913997967070521</v>
+        <v>0.1913997954526949</v>
       </c>
       <c r="N51" t="n">
         <v>87</v>
@@ -3029,31 +3029,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2765672703397816</v>
+        <v>0.27656726976631</v>
       </c>
       <c r="F52" t="n">
-        <v>0.753785826095961</v>
+        <v>0.7537858257923904</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.2117401658145468</v>
+        <v>-0.2117401663357441</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02689552583910881</v>
+        <v>0.02689552646734228</v>
       </c>
       <c r="I52" t="n">
-        <v>32.65211431500972</v>
+        <v>32.65212093851324</v>
       </c>
       <c r="J52" t="n">
-        <v>0.531949795289457</v>
+        <v>0.5319497948659702</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4855707651800319</v>
+        <v>0.4855707653961652</v>
       </c>
       <c r="L52" t="n">
-        <v>0.7202427040283136</v>
+        <v>0.7202427038612509</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2223589865896302</v>
+        <v>0.2223589861016485</v>
       </c>
       <c r="N52" t="n">
         <v>87</v>
@@ -3079,31 +3079,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2400001002958555</v>
+        <v>0.2400001000726427</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7635761229541848</v>
+        <v>0.7635761232456095</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.2849733761827338</v>
+        <v>-0.2849733770856346</v>
       </c>
       <c r="H53" t="n">
-        <v>0.08731062575918713</v>
+        <v>0.08731062238115328</v>
       </c>
       <c r="I53" t="n">
-        <v>37.73634239066045</v>
+        <v>37.73632355192426</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5473537759993499</v>
+        <v>0.5473537759609047</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4562981592147196</v>
+        <v>0.4562981584104601</v>
       </c>
       <c r="L53" t="n">
-        <v>0.7126037932845207</v>
+        <v>0.7126037927400034</v>
       </c>
       <c r="M53" t="n">
-        <v>0.2743069983471375</v>
+        <v>0.2743070005729501</v>
       </c>
       <c r="N53" t="n">
         <v>87</v>
@@ -3129,31 +3129,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.263205757379455</v>
+        <v>0.2632057594636964</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7586900916540007</v>
+        <v>0.7586900935223911</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2608016077812749</v>
+        <v>-0.2608016062827687</v>
       </c>
       <c r="H54" t="n">
-        <v>0.06526251430835828</v>
+        <v>0.06526251839409269</v>
       </c>
       <c r="I54" t="n">
-        <v>37.62943656066446</v>
+        <v>37.62941772218733</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5232388858499553</v>
+        <v>0.5232388860508098</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4640685389109311</v>
+        <v>0.4640685387310747</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6993844010788551</v>
+        <v>0.6993844011097812</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2940614131461785</v>
+        <v>0.2940614178931591</v>
       </c>
       <c r="N54" t="n">
         <v>87</v>
@@ -3179,31 +3179,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2458199077326268</v>
+        <v>0.2458199082453526</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7443953207233065</v>
+        <v>0.7443953206707814</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2767599298138634</v>
+        <v>-0.2767599298008463</v>
       </c>
       <c r="H55" t="n">
-        <v>0.05994941563386647</v>
+        <v>0.05994941551500688</v>
       </c>
       <c r="I55" t="n">
-        <v>37.71349808549353</v>
+        <v>37.71347924620662</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5186876479978186</v>
+        <v>0.5186876477193606</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4652515871891652</v>
+        <v>0.4652515860540792</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6967753695184313</v>
+        <v>0.696775368553223</v>
       </c>
       <c r="M55" t="n">
-        <v>0.2619703760870792</v>
+        <v>0.2619703785051313</v>
       </c>
       <c r="N55" t="n">
         <v>87</v>
@@ -3229,31 +3229,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2673641026857079</v>
+        <v>0.2673641027525501</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7613376053936883</v>
+        <v>0.7613376054146281</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.202020749290682</v>
+        <v>-0.2020207489598533</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2115215086350872</v>
+        <v>0.211521508228941</v>
       </c>
       <c r="I56" t="n">
-        <v>42.48015351914512</v>
+        <v>42.48015351758804</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5128230420608547</v>
+        <v>0.5128230423427663</v>
       </c>
       <c r="K56" t="n">
-        <v>0.4764810723937331</v>
+        <v>0.4764810721238162</v>
       </c>
       <c r="L56" t="n">
-        <v>0.7000154889843732</v>
+        <v>0.7000154890071734</v>
       </c>
       <c r="M56" t="n">
-        <v>0.2993547470286372</v>
+        <v>0.2993547470285118</v>
       </c>
       <c r="N56" t="n">
         <v>87</v>
@@ -3279,31 +3279,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3024767608318449</v>
+        <v>0.3024767605143555</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7689853104294018</v>
+        <v>0.7689853102653827</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2103370616898701</v>
+        <v>-0.2103370614909181</v>
       </c>
       <c r="H57" t="n">
-        <v>0.180591973976675</v>
+        <v>0.1805919739950923</v>
       </c>
       <c r="I57" t="n">
-        <v>42.48758653062681</v>
+        <v>42.48758652906961</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5418524378863795</v>
+        <v>0.5418524381964257</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4695722243333015</v>
+        <v>0.4695722237069309</v>
       </c>
       <c r="L57" t="n">
-        <v>0.7170091619419777</v>
+        <v>0.7170091617660707</v>
       </c>
       <c r="M57" t="n">
-        <v>0.2779141402438754</v>
+        <v>0.2779141402438932</v>
       </c>
       <c r="N57" t="n">
         <v>87</v>
@@ -3329,31 +3329,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2764461927737832</v>
+        <v>0.2764461930736479</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7876356087646613</v>
+        <v>0.7876356090934105</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2032649745222557</v>
+        <v>-0.2032649746565198</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2058238927016305</v>
+        <v>0.205823892565661</v>
       </c>
       <c r="I58" t="n">
-        <v>42.34938121417463</v>
+        <v>42.34938121261748</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5309115369120692</v>
+        <v>0.5309115370890219</v>
       </c>
       <c r="K58" t="n">
-        <v>0.4701079662803514</v>
+        <v>0.470107966630933</v>
       </c>
       <c r="L58" t="n">
-        <v>0.7091322584585921</v>
+        <v>0.7091322588234851</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3427846148932218</v>
+        <v>0.3427846148937259</v>
       </c>
       <c r="N58" t="n">
         <v>87</v>
@@ -3379,31 +3379,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3442576941241146</v>
+        <v>0.3442576935258543</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8594857303970113</v>
+        <v>0.8594857303171207</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2871722195803841</v>
+        <v>-0.2871722233153946</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1389331394510691</v>
+        <v>0.1389331342298874</v>
       </c>
       <c r="I59" t="n">
-        <v>47.49498183666323</v>
+        <v>47.49499481959721</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5358825436859485</v>
+        <v>0.5358825438270556</v>
       </c>
       <c r="K59" t="n">
-        <v>0.4493418880351688</v>
+        <v>0.4493418880686202</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6993412850463876</v>
+        <v>0.6993412851760067</v>
       </c>
       <c r="M59" t="n">
-        <v>0.4996373562752668</v>
+        <v>0.499637355956429</v>
       </c>
       <c r="N59" t="n">
         <v>86</v>
@@ -3429,31 +3429,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3327185906478537</v>
+        <v>0.3327185915156621</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8309796470379688</v>
+        <v>0.8309796479063812</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3039975225918852</v>
+        <v>-0.3039975220372071</v>
       </c>
       <c r="H60" t="n">
-        <v>0.09982162192301303</v>
+        <v>0.09982162256682159</v>
       </c>
       <c r="I60" t="n">
-        <v>47.79402366984176</v>
+        <v>47.79403665410771</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5115779593462362</v>
+        <v>0.5115779595709343</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5036109396564535</v>
+        <v>0.503610939738479</v>
       </c>
       <c r="L60" t="n">
-        <v>0.7178690598086223</v>
+        <v>0.7178690600262938</v>
       </c>
       <c r="M60" t="n">
-        <v>0.4185584627752708</v>
+        <v>0.4185584641260991</v>
       </c>
       <c r="N60" t="n">
         <v>87</v>
@@ -3479,31 +3479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3132629591828909</v>
+        <v>0.3132629608410687</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8177545743760841</v>
+        <v>0.8177545753106183</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2649618643459917</v>
+        <v>-0.2649618607275102</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09168652278981426</v>
+        <v>0.09168652632928342</v>
       </c>
       <c r="I61" t="n">
-        <v>47.92307439699091</v>
+        <v>47.92308738035842</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5071405222017843</v>
+        <v>0.5071405221668408</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4638694032672505</v>
+        <v>0.4638694032697954</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6872891186004718</v>
+        <v>0.6872891185764053</v>
       </c>
       <c r="M61" t="n">
-        <v>0.4431209895348787</v>
+        <v>0.4431209912968702</v>
       </c>
       <c r="N61" t="n">
         <v>87</v>
@@ -3529,31 +3529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4135299955032827</v>
+        <v>0.4135299955014495</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9893457051876183</v>
+        <v>0.9893457050713627</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3221880048861863</v>
+        <v>-0.3221880048224648</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2395575887290988</v>
+        <v>0.2395575888090775</v>
       </c>
       <c r="I62" t="n">
-        <v>53.06154610881001</v>
+        <v>53.06154609042642</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5191738309636658</v>
+        <v>0.5191738310179962</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5181617809959962</v>
+        <v>0.5181617807250759</v>
       </c>
       <c r="L62" t="n">
-        <v>0.7335073946746764</v>
+        <v>0.7335073945217488</v>
       </c>
       <c r="M62" t="n">
-        <v>0.6639064891464289</v>
+        <v>0.6639064891421627</v>
       </c>
       <c r="N62" t="n">
         <v>87</v>
@@ -3579,31 +3579,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4224107794193844</v>
+        <v>0.4224107793519765</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9963395033795743</v>
+        <v>0.9963395034138131</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3008536846522816</v>
+        <v>-0.3008536845346725</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1763072528581233</v>
+        <v>0.1763072529263354</v>
       </c>
       <c r="I63" t="n">
-        <v>53.24358951031568</v>
+        <v>53.24358949193095</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5677940506675352</v>
+        <v>0.5677940506913435</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5185616250807913</v>
+        <v>0.5185616251210261</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7689578941527804</v>
+        <v>0.7689578941974934</v>
       </c>
       <c r="M63" t="n">
-        <v>0.6335583343424518</v>
+        <v>0.6335583343420047</v>
       </c>
       <c r="N63" t="n">
         <v>87</v>
@@ -3629,31 +3629,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4167767348220163</v>
+        <v>0.4167767349766326</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9942035119092988</v>
+        <v>0.9942035119391248</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.310222916317116</v>
+        <v>-0.3102229166456709</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1756573963144206</v>
+        <v>0.1756573965207053</v>
       </c>
       <c r="I64" t="n">
-        <v>53.51067373607803</v>
+        <v>53.51067371769289</v>
       </c>
       <c r="J64" t="n">
-        <v>0.540060614299711</v>
+        <v>0.5400606144413765</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5375657545223316</v>
+        <v>0.5375657544266992</v>
       </c>
       <c r="L64" t="n">
-        <v>0.7619989550865178</v>
+        <v>0.7619989551194566</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6385908044592219</v>
+        <v>0.638590804466325</v>
       </c>
       <c r="N64" t="n">
         <v>87</v>
